--- a/trunk/archivos/pesado/LISTADO DE EQUIPOS.xlsx
+++ b/trunk/archivos/pesado/LISTADO DE EQUIPOS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2075,12 +2075,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2093,13 +2108,6 @@
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2115,25 +2123,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2149,15 +2142,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2166,18 +2150,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2224,22 +2196,65 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2539,1053 +2554,1053 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+    <sheetView topLeftCell="C22" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="22" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="12" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="F3" s="43" t="s">
+      <c r="D3" s="18"/>
+      <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="J3" s="10">
+      <c r="H3" s="15"/>
+      <c r="J3" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="F4" s="43" t="s">
+      <c r="D4" s="15"/>
+      <c r="F4" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="J4" s="10">
+      <c r="H4" s="15"/>
+      <c r="J4" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="F6" s="43" t="s">
+      <c r="D6" s="15"/>
+      <c r="F6" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="J7" s="10">
+      <c r="E7" s="2"/>
+      <c r="J7" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="43" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="J9" s="10">
+      <c r="D9" s="15"/>
+      <c r="J9" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="F10" s="43" t="s">
+      <c r="D10" s="15"/>
+      <c r="F10" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="J10" s="10">
+      <c r="H10" s="15"/>
+      <c r="J10" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="F11" s="43" t="s">
+      <c r="D11" s="15"/>
+      <c r="F11" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="J11" s="10">
+      <c r="H11" s="15"/>
+      <c r="J11" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="J12" s="10">
+      <c r="D12" s="18"/>
+      <c r="J12" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="F13" s="43" t="s">
+      <c r="D13" s="15"/>
+      <c r="F13" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="J13" s="10">
+      <c r="H13" s="15"/>
+      <c r="J13" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="F14" s="43" t="s">
+      <c r="D14" s="15"/>
+      <c r="F14" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="J14" s="10">
+      <c r="H14" s="15"/>
+      <c r="J14" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="F15" s="43" t="s">
+      <c r="D15" s="15"/>
+      <c r="F15" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="J15" s="10">
+      <c r="H15" s="15"/>
+      <c r="J15" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="F16" s="43" t="s">
+      <c r="D16" s="15"/>
+      <c r="F16" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="J16" s="10">
+      <c r="H16" s="15"/>
+      <c r="J16" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="F17" s="43" t="s">
+      <c r="D17" s="15"/>
+      <c r="F17" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="2">
         <v>4732664</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="10">
+      <c r="I17" s="2"/>
+      <c r="J17" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="F18" s="43" t="s">
+      <c r="D18" s="15"/>
+      <c r="F18" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="J18" s="10">
+      <c r="H18" s="15"/>
+      <c r="J18" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="F19" s="43" t="s">
+      <c r="D19" s="15"/>
+      <c r="F19" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="J19" s="10">
+      <c r="H19" s="15"/>
+      <c r="J19" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="4">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="9" t="s">
+      <c r="H21" s="15"/>
+      <c r="I21" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="F22" s="43" t="s">
+      <c r="D22" s="15"/>
+      <c r="F22" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="J22" s="10">
+      <c r="H22" s="15"/>
+      <c r="J22" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="F23" s="43" t="s">
+      <c r="D23" s="15"/>
+      <c r="F23" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="H23" s="28"/>
-      <c r="J23" s="10">
+      <c r="H23" s="15"/>
+      <c r="J23" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="9" t="s">
+      <c r="H24" s="15"/>
+      <c r="I24" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="F25" s="43" t="s">
+      <c r="D25" s="15"/>
+      <c r="F25" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H25" s="28"/>
-      <c r="J25" s="10">
+      <c r="H25" s="15"/>
+      <c r="J25" s="5">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="J26" s="10">
+      <c r="D26" s="18"/>
+      <c r="J26" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="I27" s="41" t="s">
+      <c r="I27" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="J27" s="41">
+      <c r="J27" s="24">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="2">
         <v>2216225231</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="2">
         <v>2215944405</v>
       </c>
-      <c r="H28" s="39" t="s">
+      <c r="H28" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="4">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="14">
         <v>4527121</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="43" t="s">
+      <c r="E29" s="15"/>
+      <c r="F29" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="14">
         <v>4573510</v>
       </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="10">
+      <c r="I29" s="15"/>
+      <c r="J29" s="5">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="28" t="s">
         <v>444</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="4">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="F31" s="43" t="s">
+      <c r="D31" s="15"/>
+      <c r="F31" s="26" t="s">
         <v>460</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="H31" s="28"/>
-      <c r="J31" s="10">
+      <c r="H31" s="15"/>
+      <c r="J31" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="H32" s="28"/>
-      <c r="J32" s="10">
+      <c r="H32" s="15"/>
+      <c r="J32" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="2">
         <v>1132366432</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="F33" s="43" t="s">
+      <c r="F33" s="26" t="s">
         <v>498</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="2">
         <v>2214973415</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="4">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="E34" s="36"/>
-      <c r="J34" s="10">
+      <c r="E34" s="19"/>
+      <c r="J34" s="5">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="H35" s="28"/>
-      <c r="J35" s="10">
+      <c r="H35" s="15"/>
+      <c r="J35" s="5">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="2">
         <v>2216124230</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="26" t="s">
         <v>545</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="2">
         <v>2214186159</v>
       </c>
-      <c r="H36" s="20" t="s">
+      <c r="H36" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="4">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="7">
         <v>2215739018</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="9" t="s">
+      <c r="D37" s="15"/>
+      <c r="E37" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="F37" s="45" t="s">
+      <c r="F37" s="28" t="s">
         <v>563</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="7">
         <v>2215234733</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="H37" s="15" t="s">
         <v>564</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="10">
+      <c r="I37" s="2"/>
+      <c r="J37" s="5">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="F38" s="43" t="s">
+      <c r="F38" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="H38" s="28" t="s">
+      <c r="H38" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="15">
         <v>4860601</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="43" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="H39" s="28"/>
-      <c r="J39" s="10">
+      <c r="H39" s="15"/>
+      <c r="J39" s="5">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="F40" s="45" t="s">
+      <c r="F40" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="H40" s="20" t="s">
+      <c r="H40" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="I40" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="4">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="F41" s="43" t="s">
+      <c r="D41" s="15"/>
+      <c r="F41" s="26" t="s">
         <v>632</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="H41" s="28"/>
-      <c r="J41" s="10">
+      <c r="H41" s="15"/>
+      <c r="J41" s="5">
         <v>40</v>
       </c>
     </row>
@@ -3620,5064 +3635,4627 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E419"/>
+  <dimension ref="A1:C419"/>
   <sheetViews>
-    <sheetView topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="E250" sqref="E250:E251"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="F405" sqref="F405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="35">
         <v>32712845</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="33">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="35">
         <v>36738524</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="33">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="35">
         <v>36738531</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="33">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="35">
         <v>38363324</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="33">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="35">
         <v>39508093</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="33">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="35">
         <v>39508093</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="33">
         <v>1</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="35">
         <v>0</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="33">
         <v>1</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="35">
         <v>39508181</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="33">
         <v>1</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="35">
         <v>36272566</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="33">
         <v>1</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="35">
         <v>36738594</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="33">
         <v>1</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="36">
         <v>41393748</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="37">
         <v>2</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="36">
         <v>40914562</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="37">
         <v>2</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="36">
         <v>37824474</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="37">
         <v>2</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="36">
         <v>43264178</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="37">
         <v>2</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="5" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="36">
         <v>30552272</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="37">
         <v>2</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="36">
         <v>40996112</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="37">
         <v>2</v>
       </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="36">
         <v>30193065</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="37">
         <v>2</v>
       </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="5" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="36">
         <v>18135944</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="37">
         <v>2</v>
       </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="36">
         <v>94024071</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="37">
         <v>3</v>
       </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="36">
         <v>94024072</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="37">
         <v>3</v>
       </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="36">
         <v>94807716</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="37">
         <v>3</v>
       </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="36">
         <v>94822088</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="37">
         <v>3</v>
       </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="36">
         <v>50255484</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="37">
         <v>3</v>
       </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="36">
         <v>94913024</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="37">
         <v>3</v>
       </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="36">
         <v>93951479</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="37">
         <v>3</v>
       </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="12" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="48">
+      <c r="B27" s="39">
         <v>34964127</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="37">
         <v>4</v>
       </c>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="12" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="48">
+      <c r="B28" s="39">
         <v>36363290</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="37">
         <v>4</v>
       </c>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="12" t="s">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="48">
+      <c r="B29" s="39">
         <v>36363332</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="37">
         <v>4</v>
       </c>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="12" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="48">
+      <c r="B30" s="39">
         <v>36571421</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="37">
         <v>4</v>
       </c>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="12" t="s">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="48">
+      <c r="B31" s="39">
         <v>34964033</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="37">
         <v>4</v>
       </c>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="12" t="s">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="48">
+      <c r="B32" s="39">
         <v>36852769</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="37">
         <v>4</v>
       </c>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="12" t="s">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="48">
+      <c r="B33" s="39">
         <v>35231497</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="37">
         <v>4</v>
       </c>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="12" t="s">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="48">
+      <c r="B34" s="39">
         <v>29846534</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="37">
         <v>4</v>
       </c>
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="12" t="s">
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="48">
+      <c r="B35" s="39">
         <v>37985738</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="37">
         <v>4</v>
       </c>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="36">
         <v>39097576</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="37">
         <v>5</v>
       </c>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="5" t="s">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="36">
         <v>40714655</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="37">
         <v>5</v>
       </c>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="5" t="s">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="36">
         <v>38497838</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="37">
         <v>5</v>
       </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="5" t="s">
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="36">
         <v>38239393</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="37">
         <v>5</v>
       </c>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="5" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="36">
         <v>39710758</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="37">
         <v>5</v>
       </c>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="5" t="s">
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="36">
         <v>34050139</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="37">
         <v>5</v>
       </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="5" t="s">
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="36">
         <v>19005973</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="37">
         <v>5</v>
       </c>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="5" t="s">
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="36">
         <v>39831267</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="37">
         <v>5</v>
       </c>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="5" t="s">
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="36">
         <v>41105745</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="37">
         <v>5</v>
       </c>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="5" t="s">
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="36">
         <v>43044405</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="37">
         <v>5</v>
       </c>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="5" t="s">
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="36">
         <v>39554813</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="37">
         <v>5</v>
       </c>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="5" t="s">
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="36">
         <v>36758144</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="37">
         <v>6</v>
       </c>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="5" t="s">
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="36">
         <v>38251767</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="37">
         <v>6</v>
       </c>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="5" t="s">
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="36">
         <v>35940894</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="37">
         <v>6</v>
       </c>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="5" t="s">
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="36">
         <v>35180491</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="37">
         <v>6</v>
       </c>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="5" t="s">
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="36">
         <v>37180918</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="37">
         <v>6</v>
       </c>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="5" t="s">
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="36">
         <v>39812551</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="37">
         <v>6</v>
       </c>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="5" t="s">
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="35">
         <v>42298203</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="37">
         <v>7</v>
       </c>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="5" t="s">
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="35">
         <v>31798292</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="37">
         <v>7</v>
       </c>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="5" t="s">
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="35">
         <v>42428949</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="37">
         <v>7</v>
       </c>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="5" t="s">
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="35">
         <v>41542906</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="37">
         <v>7</v>
       </c>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="5" t="s">
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="35">
         <v>35610315</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="37">
         <v>7</v>
       </c>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="5" t="s">
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="35">
         <v>29230087</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="37">
         <v>7</v>
       </c>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="5" t="s">
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="35">
         <v>42675689</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="37">
         <v>7</v>
       </c>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="5" t="s">
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="35">
         <v>41616650</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="37">
         <v>7</v>
       </c>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="5" t="s">
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="35">
         <v>38560285</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="37">
         <v>7</v>
       </c>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="5" t="s">
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="35">
         <v>36936902</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="37">
         <v>7</v>
       </c>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="5" t="s">
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="35">
         <v>42042921</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="37">
         <v>7</v>
       </c>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="5" t="s">
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="35">
         <v>41391754</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="37">
         <v>7</v>
       </c>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="5" t="s">
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="B65" s="16">
+      <c r="B65" s="35">
         <v>38017228</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="37">
         <v>7</v>
       </c>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="5" t="s">
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B66" s="36">
         <v>30487553</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="37">
         <v>8</v>
       </c>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="5" t="s">
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="36">
         <v>28452304</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="37">
         <v>8</v>
       </c>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="5" t="s">
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="17">
+      <c r="B68" s="36">
         <v>37151900</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="37">
         <v>8</v>
       </c>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="5" t="s">
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="36">
         <v>24256633</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="37">
         <v>8</v>
       </c>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="5" t="s">
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B70" s="36">
         <v>29131898</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="37">
         <v>8</v>
       </c>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="7" t="s">
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="36">
         <v>28521612</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="37">
         <v>8</v>
       </c>
-      <c r="D71" s="11"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="5" t="s">
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="17">
+      <c r="B72" s="36">
         <v>37803005</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="37">
         <v>8</v>
       </c>
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="5" t="s">
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B73" s="36">
         <v>30834505</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="37">
         <v>8</v>
       </c>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="5" t="s">
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="B74" s="17">
+      <c r="B74" s="36">
         <v>30427031</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="37">
         <v>8</v>
       </c>
-      <c r="D74" s="5"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="5" t="s">
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B75" s="17">
+      <c r="B75" s="36">
         <v>26192273</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="37">
         <v>8</v>
       </c>
-      <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="5" t="s">
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="B76" s="17">
+      <c r="B76" s="36">
         <v>28991303</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="37">
         <v>8</v>
       </c>
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="5" t="s">
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B77" s="17">
+      <c r="B77" s="36">
         <v>38285157</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="37">
         <v>9</v>
       </c>
-      <c r="D77" s="5"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="5" t="s">
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="B78" s="17">
+      <c r="B78" s="36">
         <v>37928073</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="37">
         <v>9</v>
       </c>
-      <c r="D78" s="5"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="5" t="s">
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B79" s="17">
+      <c r="B79" s="36">
         <v>36559785</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="37">
         <v>9</v>
       </c>
-      <c r="D79" s="5"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="5" t="s">
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="17">
+      <c r="B80" s="36">
         <v>39964649</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="37">
         <v>9</v>
       </c>
-      <c r="D80" s="5"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="5" t="s">
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="B81" s="17">
+      <c r="B81" s="36">
         <v>37381156</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="37">
         <v>9</v>
       </c>
-      <c r="D81" s="5"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="5" t="s">
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="B82" s="17">
+      <c r="B82" s="36">
         <v>38511293</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="37">
         <v>9</v>
       </c>
-      <c r="D82" s="5"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="5" t="s">
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="17">
+      <c r="B83" s="36">
         <v>37353238</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="37">
         <v>9</v>
       </c>
-      <c r="D83" s="5"/>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="5" t="s">
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="17">
+      <c r="B84" s="36">
         <v>38437387</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="37">
         <v>9</v>
       </c>
-      <c r="D84" s="5"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="5" t="s">
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="B85" s="17">
+      <c r="B85" s="36">
         <v>34376747</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="37">
         <v>9</v>
       </c>
-      <c r="D85" s="5"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="5" t="s">
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="B86" s="17">
+      <c r="B86" s="36">
         <v>0</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="37">
         <v>9</v>
       </c>
-      <c r="D86" s="5"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="5" t="s">
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="B87" s="17">
+      <c r="B87" s="36">
         <v>0</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="37">
         <v>9</v>
       </c>
-      <c r="D87" s="5"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="5" t="s">
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="B88" s="17">
+      <c r="B88" s="36">
         <v>0</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="37">
         <v>9</v>
       </c>
-      <c r="D88" s="5"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="5" t="s">
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="B89" s="17">
+      <c r="B89" s="36">
         <v>0</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="37">
         <v>9</v>
       </c>
-      <c r="D89" s="5"/>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="5" t="s">
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="B90" s="17">
+      <c r="B90" s="36">
         <v>0</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="37">
         <v>9</v>
       </c>
-      <c r="D90" s="5"/>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="5" t="s">
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="17">
+      <c r="B91" s="36">
         <v>34816979</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="37">
         <v>10</v>
       </c>
-      <c r="D91" s="5"/>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="5" t="s">
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="B92" s="17">
+      <c r="B92" s="36">
         <v>37945724</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="37">
         <v>10</v>
       </c>
-      <c r="D92" s="5"/>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="5" t="s">
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="B93" s="17">
+      <c r="B93" s="36">
         <v>30434686</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="37">
         <v>10</v>
       </c>
-      <c r="D93" s="5"/>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="5" t="s">
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="17">
+      <c r="B94" s="36">
         <v>34886866</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="37">
         <v>10</v>
       </c>
-      <c r="D94" s="5"/>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="5" t="s">
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="B95" s="17">
+      <c r="B95" s="36">
         <v>35500175</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="37">
         <v>10</v>
       </c>
-      <c r="D95" s="5"/>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="5" t="s">
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="B96" s="17">
+      <c r="B96" s="36">
         <v>36683414</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="37">
         <v>10</v>
       </c>
-      <c r="D96" s="5"/>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="5" t="s">
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="B97" s="17">
+      <c r="B97" s="36">
         <v>28519907</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="37">
         <v>10</v>
       </c>
-      <c r="D97" s="5"/>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="5" t="s">
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="B98" s="17">
+      <c r="B98" s="36">
         <v>30434239</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="37">
         <v>10</v>
       </c>
-      <c r="D98" s="5"/>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="5" t="s">
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="B99" s="17">
+      <c r="B99" s="36">
         <v>36325360</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="37">
         <v>10</v>
       </c>
-      <c r="D99" s="5"/>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="5" t="s">
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="B100" s="17">
+      <c r="B100" s="36">
         <v>36694081</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="37">
         <v>10</v>
       </c>
-      <c r="D100" s="5"/>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="5" t="s">
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="B101" s="17">
+      <c r="B101" s="36">
         <v>32263217</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="37">
         <v>10</v>
       </c>
-      <c r="D101" s="5"/>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="5" t="s">
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="B102" s="17">
+      <c r="B102" s="36">
         <v>0</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="37">
         <v>11</v>
       </c>
-      <c r="D102" s="5"/>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="5" t="s">
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="B103" s="17">
+      <c r="B103" s="36">
         <v>35950496</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="37">
         <v>11</v>
       </c>
-      <c r="D103" s="5"/>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="5" t="s">
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="B104" s="17">
+      <c r="B104" s="36">
         <v>37363899</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="37">
         <v>11</v>
       </c>
-      <c r="D104" s="5"/>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="5" t="s">
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="B105" s="17">
+      <c r="B105" s="36">
         <v>42630440</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="37">
         <v>11</v>
       </c>
-      <c r="D105" s="5"/>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="5" t="s">
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B106" s="17">
+      <c r="B106" s="36">
         <v>37945260</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="37">
         <v>11</v>
       </c>
-      <c r="D106" s="5"/>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="5" t="s">
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B107" s="17">
+      <c r="B107" s="36">
         <v>35500224</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="37">
         <v>11</v>
       </c>
-      <c r="D107" s="5"/>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="5" t="s">
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="B108" s="17">
+      <c r="B108" s="36">
         <v>33806266</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="37">
         <v>11</v>
       </c>
-      <c r="D108" s="5"/>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="5" t="s">
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B109" s="17">
+      <c r="B109" s="36">
         <v>28452432</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="37">
         <v>11</v>
       </c>
-      <c r="D109" s="5"/>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="5" t="s">
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="B110" s="17">
+      <c r="B110" s="36">
         <v>25771821</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="37">
         <v>12</v>
       </c>
-      <c r="D110" s="5"/>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="5" t="s">
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="B111" s="17">
+      <c r="B111" s="36">
         <v>31653884</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="37">
         <v>12</v>
       </c>
-      <c r="D111" s="5"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="5" t="s">
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="B112" s="17">
+      <c r="B112" s="36">
         <v>28516571</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="37">
         <v>12</v>
       </c>
-      <c r="D112" s="5"/>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="5" t="s">
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="B113" s="17">
+      <c r="B113" s="36">
         <v>29763253</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="37">
         <v>12</v>
       </c>
-      <c r="D113" s="5"/>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="5" t="s">
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="B114" s="17">
+      <c r="B114" s="36">
         <v>27802920</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="37">
         <v>12</v>
       </c>
-      <c r="D114" s="5"/>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="5" t="s">
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="B115" s="17">
+      <c r="B115" s="36">
         <v>31898556</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="37">
         <v>12</v>
       </c>
-      <c r="D115" s="5"/>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="5" t="s">
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B116" s="17">
+      <c r="B116" s="36">
         <v>38535691</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="37">
         <v>12</v>
       </c>
-      <c r="D116" s="5"/>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="5" t="s">
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="B117" s="17">
+      <c r="B117" s="36">
         <v>35508494</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="37">
         <v>12</v>
       </c>
-      <c r="D117" s="5"/>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="5" t="s">
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="B118" s="17">
+      <c r="B118" s="36">
         <v>38299419</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="37">
         <v>12</v>
       </c>
-      <c r="D118" s="5"/>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="5" t="s">
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="B119" s="17">
+      <c r="B119" s="36">
         <v>30577925</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="37">
         <v>12</v>
       </c>
-      <c r="D119" s="5"/>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="5" t="s">
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="B120" s="17">
+      <c r="B120" s="36">
         <v>30308425</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="37">
         <v>12</v>
       </c>
-      <c r="D120" s="5"/>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="5" t="s">
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="B121" s="17">
+      <c r="B121" s="36">
         <v>38535691</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="37">
         <v>12</v>
       </c>
-      <c r="D121" s="5"/>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="5" t="s">
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="B122" s="17">
+      <c r="B122" s="36">
         <v>37365953</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="37">
         <v>12</v>
       </c>
-      <c r="D122" s="5"/>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="5" t="s">
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="B123" s="17">
+      <c r="B123" s="36">
         <v>37621759</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="37">
         <v>12</v>
       </c>
-      <c r="D123" s="5"/>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="5" t="s">
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="B124" s="17">
+      <c r="B124" s="36">
         <v>31653884</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="37">
         <v>12</v>
       </c>
-      <c r="D124" s="5"/>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="5" t="s">
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="B125" s="17">
+      <c r="B125" s="36">
         <v>28868565</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="37">
         <v>13</v>
       </c>
-      <c r="D125" s="5"/>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="5" t="s">
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="B126" s="17">
+      <c r="B126" s="36">
         <v>39964393</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="37">
         <v>13</v>
       </c>
-      <c r="D126" s="5"/>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="5" t="s">
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="B127" s="17">
+      <c r="B127" s="36">
         <v>39918472</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="37">
         <v>13</v>
       </c>
-      <c r="D127" s="5"/>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="5" t="s">
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="B128" s="17">
+      <c r="B128" s="36">
         <v>27881968</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="37">
         <v>13</v>
       </c>
-      <c r="D128" s="5"/>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="5" t="s">
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="B129" s="17">
+      <c r="B129" s="36">
         <v>31936220</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="37">
         <v>13</v>
       </c>
-      <c r="D129" s="5"/>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="5" t="s">
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="B130" s="17">
+      <c r="B130" s="36">
         <v>27051982</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130" s="37">
         <v>13</v>
       </c>
-      <c r="D130" s="5"/>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="5" t="s">
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="B131" s="17">
+      <c r="B131" s="36">
         <v>35499034</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="37">
         <v>13</v>
       </c>
-      <c r="D131" s="5"/>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="5" t="s">
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="B132" s="17">
+      <c r="B132" s="36">
         <v>39097115</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132" s="37">
         <v>13</v>
       </c>
-      <c r="D132" s="5"/>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="5" t="s">
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="B133" s="17">
+      <c r="B133" s="36">
         <v>32393416</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133" s="37">
         <v>13</v>
       </c>
-      <c r="D133" s="5"/>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="5" t="s">
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="B134" s="17">
+      <c r="B134" s="36">
         <v>26683249</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="37">
         <v>13</v>
       </c>
-      <c r="D134" s="5"/>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="5" t="s">
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="B135" s="17">
+      <c r="B135" s="36">
         <v>41889612</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="37">
         <v>13</v>
       </c>
-      <c r="D135" s="5"/>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="5" t="s">
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="B136" s="17">
+      <c r="B136" s="36">
         <v>36067043</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="37">
         <v>13</v>
       </c>
-      <c r="D136" s="5"/>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="3" t="s">
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="B137" s="16">
+      <c r="B137" s="35">
         <v>22190827</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="37">
         <v>14</v>
       </c>
-      <c r="D137" s="3"/>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="3" t="s">
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="B138" s="16">
+      <c r="B138" s="35">
         <v>32070292</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="37">
         <v>14</v>
       </c>
-      <c r="D138" s="3"/>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="3" t="s">
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="B139" s="16">
+      <c r="B139" s="35">
         <v>12964936</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="37">
         <v>14</v>
       </c>
-      <c r="D139" s="3"/>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="3" t="s">
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="B140" s="16">
+      <c r="B140" s="35">
         <v>18135498</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="37">
         <v>14</v>
       </c>
-      <c r="D140" s="3"/>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="3" t="s">
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="B141" s="16">
+      <c r="B141" s="35">
         <v>21577939</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="37">
         <v>14</v>
       </c>
-      <c r="D141" s="3"/>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="3" t="s">
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="B142" s="16">
+      <c r="B142" s="35">
         <v>0</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="37">
         <v>14</v>
       </c>
-      <c r="D142" s="3"/>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="3" t="s">
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="B143" s="16">
+      <c r="B143" s="35">
         <v>21865971</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="37">
         <v>14</v>
       </c>
-      <c r="D143" s="3"/>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="3" t="s">
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="B144" s="16">
+      <c r="B144" s="35">
         <v>17082560</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144" s="37">
         <v>14</v>
       </c>
-      <c r="D144" s="3"/>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="5" t="s">
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="B145" s="17">
+      <c r="B145" s="36">
         <v>30962006</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="37">
         <v>15</v>
       </c>
-      <c r="D145" s="5"/>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="5" t="s">
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="B146" s="17">
+      <c r="B146" s="36">
         <v>30962963</v>
       </c>
-      <c r="C146" s="4">
+      <c r="C146" s="37">
         <v>15</v>
       </c>
-      <c r="D146" s="5"/>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="5" t="s">
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="B147" s="17">
+      <c r="B147" s="36">
         <v>37945055</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147" s="37">
         <v>15</v>
       </c>
-      <c r="D147" s="5"/>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="5" t="s">
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="B148" s="17">
+      <c r="B148" s="36">
         <v>40344090</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148" s="37">
         <v>15</v>
       </c>
-      <c r="D148" s="5"/>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="5" t="s">
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="B149" s="17">
+      <c r="B149" s="36">
         <v>39349074</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149" s="37">
         <v>15</v>
       </c>
-      <c r="D149" s="5"/>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="5" t="s">
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="B150" s="17">
+      <c r="B150" s="36">
         <v>28327891</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="37">
         <v>15</v>
       </c>
-      <c r="D150" s="5"/>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="5" t="s">
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="B151" s="17">
+      <c r="B151" s="36">
         <v>28471906</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="37">
         <v>15</v>
       </c>
-      <c r="D151" s="5"/>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="5" t="s">
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="B152" s="17">
+      <c r="B152" s="36">
         <v>21701164</v>
       </c>
-      <c r="C152" s="4">
+      <c r="C152" s="37">
         <v>15</v>
       </c>
-      <c r="D152" s="5"/>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="5" t="s">
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="B153" s="17">
+      <c r="B153" s="36">
         <v>10815573</v>
       </c>
-      <c r="C153" s="4">
+      <c r="C153" s="37">
         <v>15</v>
       </c>
-      <c r="D153" s="5"/>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="5" t="s">
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="B154" s="17">
+      <c r="B154" s="36">
         <v>25720325</v>
       </c>
-      <c r="C154" s="4">
+      <c r="C154" s="37">
         <v>15</v>
       </c>
-      <c r="D154" s="5"/>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="5" t="s">
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="B155" s="17">
+      <c r="B155" s="36">
         <v>38437401</v>
       </c>
-      <c r="C155" s="4">
+      <c r="C155" s="37">
         <v>16</v>
       </c>
-      <c r="D155" s="5"/>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="5" t="s">
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="B156" s="17">
+      <c r="B156" s="36">
         <v>34647487</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C156" s="37">
         <v>16</v>
       </c>
-      <c r="D156" s="5"/>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="5" t="s">
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="B157" s="17">
+      <c r="B157" s="36">
         <v>30987510</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157" s="37">
         <v>16</v>
       </c>
-      <c r="D157" s="5"/>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="5" t="s">
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="B158" s="17">
+      <c r="B158" s="36">
         <v>31408729</v>
       </c>
-      <c r="C158" s="4">
+      <c r="C158" s="37">
         <v>16</v>
       </c>
-      <c r="D158" s="5"/>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="5" t="s">
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="B159" s="17">
+      <c r="B159" s="36">
         <v>37679430</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C159" s="37">
         <v>16</v>
       </c>
-      <c r="D159" s="5"/>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="5" t="s">
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="B160" s="17">
+      <c r="B160" s="36">
         <v>34636977</v>
       </c>
-      <c r="C160" s="4">
+      <c r="C160" s="37">
         <v>16</v>
       </c>
-      <c r="D160" s="5"/>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="5" t="s">
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="B161" s="17">
+      <c r="B161" s="36">
         <v>39343261</v>
       </c>
-      <c r="C161" s="4">
+      <c r="C161" s="37">
         <v>16</v>
       </c>
-      <c r="D161" s="5"/>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="5" t="s">
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="B162" s="17">
+      <c r="B162" s="36">
         <v>33008000</v>
       </c>
-      <c r="C162" s="4">
+      <c r="C162" s="37">
         <v>16</v>
       </c>
-      <c r="D162" s="5"/>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="5" t="s">
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="B163" s="17">
+      <c r="B163" s="36">
         <v>35336180</v>
       </c>
-      <c r="C163" s="4">
+      <c r="C163" s="37">
         <v>16</v>
       </c>
-      <c r="D163" s="5"/>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="5" t="s">
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="B164" s="17">
+      <c r="B164" s="36">
         <v>32770988</v>
       </c>
-      <c r="C164" s="4">
+      <c r="C164" s="37">
         <v>17</v>
       </c>
-      <c r="D164" s="5"/>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="5" t="s">
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="B165" s="17">
+      <c r="B165" s="36">
         <v>31580070</v>
       </c>
-      <c r="C165" s="4">
+      <c r="C165" s="37">
         <v>17</v>
       </c>
-      <c r="D165" s="5"/>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="5" t="s">
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="B166" s="17">
+      <c r="B166" s="36">
         <v>32897232</v>
       </c>
-      <c r="C166" s="4">
+      <c r="C166" s="37">
         <v>17</v>
       </c>
-      <c r="D166" s="5"/>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="5" t="s">
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="B167" s="17">
+      <c r="B167" s="36">
         <v>33244546</v>
       </c>
-      <c r="C167" s="4">
+      <c r="C167" s="37">
         <v>17</v>
       </c>
-      <c r="D167" s="5"/>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="5" t="s">
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="B168" s="17">
+      <c r="B168" s="36">
         <v>32666413</v>
       </c>
-      <c r="C168" s="4">
+      <c r="C168" s="37">
         <v>17</v>
       </c>
-      <c r="D168" s="5"/>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="5" t="s">
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="B169" s="17">
+      <c r="B169" s="36">
         <v>33244545</v>
       </c>
-      <c r="C169" s="4">
+      <c r="C169" s="37">
         <v>17</v>
       </c>
-      <c r="D169" s="5"/>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="5" t="s">
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="B170" s="17">
+      <c r="B170" s="36">
         <v>32714460</v>
       </c>
-      <c r="C170" s="4">
+      <c r="C170" s="37">
         <v>17</v>
       </c>
-      <c r="D170" s="5"/>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="5" t="s">
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="B171" s="17">
+      <c r="B171" s="36">
         <v>33383922</v>
       </c>
-      <c r="C171" s="4">
+      <c r="C171" s="37">
         <v>17</v>
       </c>
-      <c r="D171" s="5"/>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="5" t="s">
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="B172" s="17">
+      <c r="B172" s="36">
         <v>31467630</v>
       </c>
-      <c r="C172" s="4">
+      <c r="C172" s="37">
         <v>17</v>
       </c>
-      <c r="D172" s="5"/>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="5" t="s">
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="B173" s="17">
+      <c r="B173" s="36">
         <v>33315161</v>
       </c>
-      <c r="C173" s="4">
+      <c r="C173" s="37">
         <v>17</v>
       </c>
-      <c r="D173" s="5"/>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="5" t="s">
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="B174" s="17">
+      <c r="B174" s="36">
         <v>33459978</v>
       </c>
-      <c r="C174" s="4">
+      <c r="C174" s="37">
         <v>17</v>
       </c>
-      <c r="D174" s="5"/>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="5" t="s">
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="B175" s="17">
+      <c r="B175" s="36">
         <v>33006082</v>
       </c>
-      <c r="C175" s="4">
+      <c r="C175" s="37">
         <v>17</v>
       </c>
-      <c r="D175" s="5"/>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="5" t="s">
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="B176" s="17">
+      <c r="B176" s="36">
         <v>30728863</v>
       </c>
-      <c r="C176" s="4">
+      <c r="C176" s="37">
         <v>18</v>
       </c>
-      <c r="D176" s="5"/>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="5" t="s">
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="B177" s="17">
+      <c r="B177" s="36">
         <v>36066952</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C177" s="37">
         <v>18</v>
       </c>
-      <c r="D177" s="5"/>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="5" t="s">
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="B178" s="17">
+      <c r="B178" s="36">
         <v>32008268</v>
       </c>
-      <c r="C178" s="4">
+      <c r="C178" s="37">
         <v>18</v>
       </c>
-      <c r="D178" s="5"/>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="5" t="s">
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="B179" s="17">
+      <c r="B179" s="36">
         <v>30427506</v>
       </c>
-      <c r="C179" s="4">
+      <c r="C179" s="37">
         <v>18</v>
       </c>
-      <c r="D179" s="5"/>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="5" t="s">
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="B180" s="17">
+      <c r="B180" s="36">
         <v>38605049</v>
       </c>
-      <c r="C180" s="4">
+      <c r="C180" s="37">
         <v>18</v>
       </c>
-      <c r="D180" s="5"/>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="5" t="s">
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="B181" s="17">
+      <c r="B181" s="36">
         <v>38864372</v>
       </c>
-      <c r="C181" s="4">
+      <c r="C181" s="37">
         <v>18</v>
       </c>
-      <c r="D181" s="5"/>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="5" t="s">
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="B182" s="17">
+      <c r="B182" s="36">
         <v>32312587</v>
       </c>
-      <c r="C182" s="4">
+      <c r="C182" s="37">
         <v>18</v>
       </c>
-      <c r="D182" s="5"/>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="5" t="s">
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="B183" s="17">
+      <c r="B183" s="36">
         <v>38605049</v>
       </c>
-      <c r="C183" s="4">
+      <c r="C183" s="37">
         <v>18</v>
       </c>
-      <c r="D183" s="5"/>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="5" t="s">
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="B184" s="17">
+      <c r="B184" s="36">
         <v>38865850</v>
       </c>
-      <c r="C184" s="4">
+      <c r="C184" s="37">
         <v>18</v>
       </c>
-      <c r="D184" s="5"/>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="5" t="s">
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="B185" s="17">
+      <c r="B185" s="36">
         <v>32869769</v>
       </c>
-      <c r="C185" s="4">
+      <c r="C185" s="37">
         <v>18</v>
       </c>
-      <c r="D185" s="5"/>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="5" t="s">
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="B186" s="17">
+      <c r="B186" s="36">
         <v>33990602</v>
       </c>
-      <c r="C186" s="4">
+      <c r="C186" s="37">
         <v>18</v>
       </c>
-      <c r="D186" s="5"/>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="5" t="s">
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="B187" s="17">
+      <c r="B187" s="36">
         <v>38864044</v>
       </c>
-      <c r="C187" s="4">
+      <c r="C187" s="37">
         <v>18</v>
       </c>
-      <c r="D187" s="5"/>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="5" t="s">
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="B188" s="17">
+      <c r="B188" s="36">
         <v>0</v>
       </c>
-      <c r="C188" s="4">
+      <c r="C188" s="37">
         <v>18</v>
       </c>
-      <c r="D188" s="5"/>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="5" t="s">
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="B189" s="17">
+      <c r="B189" s="36">
         <v>0</v>
       </c>
-      <c r="C189" s="4">
+      <c r="C189" s="37">
         <v>19</v>
       </c>
-      <c r="D189" s="5"/>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="5" t="s">
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="B190" s="17">
+      <c r="B190" s="36">
         <v>38850932</v>
       </c>
-      <c r="C190" s="4">
+      <c r="C190" s="37">
         <v>19</v>
       </c>
-      <c r="D190" s="5"/>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="5" t="s">
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="B191" s="17">
+      <c r="B191" s="36">
         <v>40145885</v>
       </c>
-      <c r="C191" s="4">
+      <c r="C191" s="37">
         <v>19</v>
       </c>
-      <c r="D191" s="5"/>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="5" t="s">
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="B192" s="17">
+      <c r="B192" s="36">
         <v>37549774</v>
       </c>
-      <c r="C192" s="4">
+      <c r="C192" s="37">
         <v>19</v>
       </c>
-      <c r="D192" s="5"/>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="5" t="s">
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="B193" s="17">
+      <c r="B193" s="36">
         <v>93704728</v>
       </c>
-      <c r="C193" s="4">
+      <c r="C193" s="37">
         <v>19</v>
       </c>
-      <c r="D193" s="5"/>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="5" t="s">
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="B194" s="17">
+      <c r="B194" s="36">
         <v>39801566</v>
       </c>
-      <c r="C194" s="4">
+      <c r="C194" s="37">
         <v>19</v>
       </c>
-      <c r="D194" s="5"/>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="5" t="s">
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="B195" s="17">
+      <c r="B195" s="36">
         <v>39762681</v>
       </c>
-      <c r="C195" s="4">
+      <c r="C195" s="37">
         <v>19</v>
       </c>
-      <c r="D195" s="5"/>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="5" t="s">
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="B196" s="17">
+      <c r="B196" s="36">
         <v>40851978</v>
       </c>
-      <c r="C196" s="4">
+      <c r="C196" s="37">
         <v>19</v>
       </c>
-      <c r="D196" s="5"/>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="5" t="s">
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="B197" s="17">
+      <c r="B197" s="36">
         <v>39831563</v>
       </c>
-      <c r="C197" s="4">
+      <c r="C197" s="37">
         <v>19</v>
       </c>
-      <c r="D197" s="5"/>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="5" t="s">
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="B198" s="17">
+      <c r="B198" s="36">
         <v>40424431</v>
       </c>
-      <c r="C198" s="4">
+      <c r="C198" s="37">
         <v>19</v>
       </c>
-      <c r="D198" s="5"/>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="5" t="s">
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="B199" s="17">
+      <c r="B199" s="36">
         <v>36365564</v>
       </c>
-      <c r="C199" s="4">
+      <c r="C199" s="37">
         <v>20</v>
       </c>
-      <c r="D199" s="5"/>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="5" t="s">
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="B200" s="17">
+      <c r="B200" s="36">
         <v>36683551</v>
       </c>
-      <c r="C200" s="4">
+      <c r="C200" s="37">
         <v>20</v>
       </c>
-      <c r="D200" s="5"/>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="5" t="s">
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="B201" s="17">
+      <c r="B201" s="36">
         <v>35940545</v>
       </c>
-      <c r="C201" s="4">
+      <c r="C201" s="37">
         <v>20</v>
       </c>
-      <c r="D201" s="5"/>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="5" t="s">
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="B202" s="17">
+      <c r="B202" s="36">
         <v>38017772</v>
       </c>
-      <c r="C202" s="4">
+      <c r="C202" s="37">
         <v>20</v>
       </c>
-      <c r="D202" s="5"/>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="5" t="s">
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="B203" s="17">
+      <c r="B203" s="36">
         <v>36571472</v>
       </c>
-      <c r="C203" s="4">
+      <c r="C203" s="37">
         <v>20</v>
       </c>
-      <c r="D203" s="5"/>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="5" t="s">
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="B204" s="17">
+      <c r="B204" s="36">
         <v>37031304</v>
       </c>
-      <c r="C204" s="4">
+      <c r="C204" s="37">
         <v>20</v>
       </c>
-      <c r="D204" s="5"/>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="5" t="s">
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="B205" s="17">
+      <c r="B205" s="36">
         <v>35951075</v>
       </c>
-      <c r="C205" s="4">
+      <c r="C205" s="37">
         <v>20</v>
       </c>
-      <c r="D205" s="5"/>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="5" t="s">
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="B206" s="17">
+      <c r="B206" s="36">
         <v>37260074</v>
       </c>
-      <c r="C206" s="4">
+      <c r="C206" s="37">
         <v>20</v>
       </c>
-      <c r="D206" s="5"/>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="5" t="s">
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="B207" s="17">
+      <c r="B207" s="36">
         <v>35610671</v>
       </c>
-      <c r="C207" s="4">
+      <c r="C207" s="37">
         <v>20</v>
       </c>
-      <c r="D207" s="5"/>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="5" t="s">
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="B208" s="17">
+      <c r="B208" s="36">
         <v>29558564</v>
       </c>
-      <c r="C208" s="4">
+      <c r="C208" s="37">
         <v>20</v>
       </c>
-      <c r="D208" s="5"/>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="5" t="s">
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="B209" s="17">
+      <c r="B209" s="36">
         <v>36618048</v>
       </c>
-      <c r="C209" s="4">
+      <c r="C209" s="37">
         <v>20</v>
       </c>
-      <c r="D209" s="5"/>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="5" t="s">
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="B210" s="17">
+      <c r="B210" s="36">
         <v>40345140</v>
       </c>
-      <c r="C210" s="4">
+      <c r="C210" s="37">
         <v>21</v>
       </c>
-      <c r="D210" s="5"/>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="5" t="s">
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="B211" s="17">
+      <c r="B211" s="36">
         <v>40345030</v>
       </c>
-      <c r="C211" s="4">
+      <c r="C211" s="37">
         <v>21</v>
       </c>
-      <c r="D211" s="5"/>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="5" t="s">
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="B212" s="17">
+      <c r="B212" s="36">
         <v>40345068</v>
       </c>
-      <c r="C212" s="4">
+      <c r="C212" s="37">
         <v>21</v>
       </c>
-      <c r="D212" s="5"/>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="5" t="s">
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="B213" s="17">
+      <c r="B213" s="36">
         <v>40344967</v>
       </c>
-      <c r="C213" s="4">
+      <c r="C213" s="37">
         <v>21</v>
       </c>
-      <c r="D213" s="5"/>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="5" t="s">
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="B214" s="17">
+      <c r="B214" s="36">
         <v>39554855</v>
       </c>
-      <c r="C214" s="4">
+      <c r="C214" s="37">
         <v>21</v>
       </c>
-      <c r="D214" s="5"/>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="5" t="s">
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="B215" s="17">
+      <c r="B215" s="36">
         <v>24704401</v>
       </c>
-      <c r="C215" s="4">
+      <c r="C215" s="37">
         <v>21</v>
       </c>
-      <c r="D215" s="5"/>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="5" t="s">
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="34" t="s">
         <v>334</v>
       </c>
-      <c r="B216" s="17">
+      <c r="B216" s="36">
         <v>40581673</v>
       </c>
-      <c r="C216" s="4">
+      <c r="C216" s="37">
         <v>21</v>
       </c>
-      <c r="D216" s="5"/>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="5" t="s">
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="B217" s="17">
+      <c r="B217" s="36">
         <v>40345015</v>
       </c>
-      <c r="C217" s="4">
+      <c r="C217" s="37">
         <v>21</v>
       </c>
-      <c r="D217" s="5"/>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="5" t="s">
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="B218" s="17">
+      <c r="B218" s="36">
         <v>39150274</v>
       </c>
-      <c r="C218" s="4">
+      <c r="C218" s="37">
         <v>21</v>
       </c>
-      <c r="D218" s="5"/>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="5" t="s">
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B219" s="17">
+      <c r="B219" s="36">
         <v>34670297</v>
       </c>
-      <c r="C219" s="4">
+      <c r="C219" s="37">
         <v>22</v>
       </c>
-      <c r="D219" s="5"/>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="5" t="s">
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="B220" s="17">
+      <c r="B220" s="36">
         <v>29307510</v>
       </c>
-      <c r="C220" s="4">
+      <c r="C220" s="37">
         <v>22</v>
       </c>
-      <c r="D220" s="5"/>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="5" t="s">
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="34" t="s">
         <v>344</v>
       </c>
-      <c r="B221" s="17">
+      <c r="B221" s="36">
         <v>31940628</v>
       </c>
-      <c r="C221" s="4">
+      <c r="C221" s="37">
         <v>22</v>
       </c>
-      <c r="D221" s="5"/>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="5" t="s">
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="34" t="s">
         <v>345</v>
       </c>
-      <c r="B222" s="17">
+      <c r="B222" s="36">
         <v>34581985</v>
       </c>
-      <c r="C222" s="4">
+      <c r="C222" s="37">
         <v>22</v>
       </c>
-      <c r="D222" s="5"/>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="5" t="s">
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="B223" s="17">
+      <c r="B223" s="36">
         <v>34816709</v>
       </c>
-      <c r="C223" s="4">
+      <c r="C223" s="37">
         <v>22</v>
       </c>
-      <c r="D223" s="5"/>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="5" t="s">
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="B224" s="17">
+      <c r="B224" s="36">
         <v>33501935</v>
       </c>
-      <c r="C224" s="4">
+      <c r="C224" s="37">
         <v>22</v>
       </c>
-      <c r="D224" s="5"/>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="5" t="s">
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="34" t="s">
         <v>348</v>
       </c>
-      <c r="B225" s="17">
+      <c r="B225" s="36">
         <v>38850485</v>
       </c>
-      <c r="C225" s="4">
+      <c r="C225" s="37">
         <v>22</v>
       </c>
-      <c r="D225" s="5"/>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="5" t="s">
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="B226" s="17">
+      <c r="B226" s="36">
         <v>33745683</v>
       </c>
-      <c r="C226" s="4">
+      <c r="C226" s="37">
         <v>22</v>
       </c>
-      <c r="D226" s="5"/>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="5" t="s">
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="B227" s="17">
+      <c r="B227" s="36">
         <v>30227258</v>
       </c>
-      <c r="C227" s="4">
+      <c r="C227" s="37">
         <v>22</v>
       </c>
-      <c r="D227" s="5"/>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="5" t="s">
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="B228" s="17">
+      <c r="B228" s="36">
         <v>30937096</v>
       </c>
-      <c r="C228" s="4">
+      <c r="C228" s="37">
         <v>22</v>
       </c>
-      <c r="D228" s="5"/>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="5" t="s">
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="B229" s="17">
+      <c r="B229" s="36">
         <v>30937096</v>
       </c>
-      <c r="C229" s="4">
+      <c r="C229" s="37">
         <v>22</v>
       </c>
-      <c r="D229" s="5"/>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="5" t="s">
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="B230" s="17">
+      <c r="B230" s="36">
         <v>28521553</v>
       </c>
-      <c r="C230" s="4">
+      <c r="C230" s="37">
         <v>22</v>
       </c>
-      <c r="D230" s="5"/>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="5" t="s">
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="B231" s="17">
+      <c r="B231" s="36">
         <v>35769393</v>
       </c>
-      <c r="C231" s="4">
+      <c r="C231" s="37">
         <v>23</v>
       </c>
-      <c r="D231" s="5"/>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="5" t="s">
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="B232" s="17">
+      <c r="B232" s="36">
         <v>38835050</v>
       </c>
-      <c r="C232" s="4">
+      <c r="C232" s="37">
         <v>23</v>
       </c>
-      <c r="D232" s="5"/>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="5" t="s">
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="B233" s="17">
+      <c r="B233" s="36">
         <v>40311383</v>
       </c>
-      <c r="C233" s="4">
+      <c r="C233" s="37">
         <v>23</v>
       </c>
-      <c r="D233" s="5"/>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="5" t="s">
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="34" t="s">
         <v>364</v>
       </c>
-      <c r="B234" s="17">
+      <c r="B234" s="36">
         <v>36318817</v>
       </c>
-      <c r="C234" s="4">
+      <c r="C234" s="37">
         <v>23</v>
       </c>
-      <c r="D234" s="5"/>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="5" t="s">
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="B235" s="17">
+      <c r="B235" s="36">
         <v>36718335</v>
       </c>
-      <c r="C235" s="4">
+      <c r="C235" s="37">
         <v>23</v>
       </c>
-      <c r="D235" s="5"/>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="5" t="s">
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="B236" s="17">
+      <c r="B236" s="36">
         <v>40255132</v>
       </c>
-      <c r="C236" s="4">
+      <c r="C236" s="37">
         <v>23</v>
       </c>
-      <c r="D236" s="5"/>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="5" t="s">
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="B237" s="17">
+      <c r="B237" s="36">
         <v>39126045</v>
       </c>
-      <c r="C237" s="4">
+      <c r="C237" s="37">
         <v>23</v>
       </c>
-      <c r="D237" s="5"/>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="5" t="s">
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="B238" s="17">
+      <c r="B238" s="36">
         <v>37407216</v>
       </c>
-      <c r="C238" s="4">
+      <c r="C238" s="37">
         <v>23</v>
       </c>
-      <c r="D238" s="5"/>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="5" t="s">
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="B239" s="17">
+      <c r="B239" s="36">
         <v>18307501</v>
       </c>
-      <c r="C239" s="4">
+      <c r="C239" s="37">
         <v>23</v>
       </c>
-      <c r="D239" s="5"/>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="5" t="s">
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="B240" s="17">
+      <c r="B240" s="36">
         <v>30707148</v>
       </c>
-      <c r="C240" s="4">
+      <c r="C240" s="37">
         <v>23</v>
       </c>
-      <c r="D240" s="5"/>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="5" t="s">
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="B241" s="17">
+      <c r="B241" s="36">
         <v>37407216</v>
       </c>
-      <c r="C241" s="4">
+      <c r="C241" s="37">
         <v>23</v>
       </c>
-      <c r="D241" s="5"/>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242" s="5" t="s">
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="B242" s="17">
+      <c r="B242" s="36">
         <v>40311387</v>
       </c>
-      <c r="C242" s="4">
+      <c r="C242" s="37">
         <v>23</v>
       </c>
-      <c r="D242" s="5"/>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="5" t="s">
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="34" t="s">
         <v>373</v>
       </c>
-      <c r="B243" s="17">
+      <c r="B243" s="36">
         <v>36718323</v>
       </c>
-      <c r="C243" s="4">
+      <c r="C243" s="37">
         <v>23</v>
       </c>
-      <c r="D243" s="5"/>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244" s="5" t="s">
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="34" t="s">
         <v>379</v>
       </c>
-      <c r="B244" s="17">
+      <c r="B244" s="36">
         <v>0</v>
       </c>
-      <c r="C244" s="4">
+      <c r="C244" s="37">
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="5" t="s">
+    <row r="245" spans="1:3">
+      <c r="A245" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="B245" s="17">
+      <c r="B245" s="36">
         <v>0</v>
       </c>
-      <c r="C245" s="4">
+      <c r="C245" s="37">
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="5" t="s">
+    <row r="246" spans="1:3">
+      <c r="A246" s="34" t="s">
         <v>381</v>
       </c>
-      <c r="B246" s="17">
+      <c r="B246" s="36">
         <v>0</v>
       </c>
-      <c r="C246" s="4">
+      <c r="C246" s="37">
         <v>24</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="5" t="s">
+    <row r="247" spans="1:3">
+      <c r="A247" s="34" t="s">
         <v>643</v>
       </c>
-      <c r="B247" s="17">
+      <c r="B247" s="36">
         <v>0</v>
       </c>
-      <c r="C247" s="4">
+      <c r="C247" s="37">
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="5" t="s">
+    <row r="248" spans="1:3">
+      <c r="A248" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="B248" s="17">
+      <c r="B248" s="36">
         <v>0</v>
       </c>
-      <c r="C248" s="4">
+      <c r="C248" s="37">
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
-      <c r="A249" s="5" t="s">
+    <row r="249" spans="1:3">
+      <c r="A249" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="B249" s="17">
+      <c r="B249" s="36">
         <v>0</v>
       </c>
-      <c r="C249" s="4">
+      <c r="C249" s="37">
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
-      <c r="A250" s="5" t="s">
+    <row r="250" spans="1:3">
+      <c r="A250" s="34" t="s">
         <v>384</v>
       </c>
-      <c r="B250" s="17">
+      <c r="B250" s="36">
         <v>0</v>
       </c>
-      <c r="C250" s="4">
+      <c r="C250" s="37">
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
-      <c r="A251" s="5" t="s">
+    <row r="251" spans="1:3">
+      <c r="A251" s="34" t="s">
         <v>385</v>
       </c>
-      <c r="B251" s="17">
+      <c r="B251" s="36">
         <v>0</v>
       </c>
-      <c r="C251" s="4">
+      <c r="C251" s="37">
         <v>24</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
-      <c r="A252" s="5" t="s">
+    <row r="252" spans="1:3">
+      <c r="A252" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="B252" s="17">
+      <c r="B252" s="36">
         <v>0</v>
       </c>
-      <c r="C252" s="4">
+      <c r="C252" s="37">
         <v>24</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
-      <c r="A253" s="5" t="s">
+    <row r="253" spans="1:3">
+      <c r="A253" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="B253" s="17">
+      <c r="B253" s="36">
         <v>0</v>
       </c>
-      <c r="C253" s="4">
+      <c r="C253" s="37">
         <v>24</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="23" t="s">
+    <row r="254" spans="1:3">
+      <c r="A254" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="B254" s="18">
+      <c r="B254" s="43">
         <v>0</v>
       </c>
-      <c r="C254" s="4">
+      <c r="C254" s="37">
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="24" t="s">
+    <row r="255" spans="1:3">
+      <c r="A255" s="44" t="s">
         <v>398</v>
       </c>
-      <c r="B255" s="49">
+      <c r="B255" s="45">
         <v>23322344</v>
       </c>
-      <c r="C255" s="4">
+      <c r="C255" s="37">
         <v>26</v>
       </c>
-      <c r="D255" s="24"/>
-      <c r="E255" s="24"/>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" s="24" t="s">
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="44" t="s">
         <v>399</v>
       </c>
-      <c r="B256" s="49">
+      <c r="B256" s="45">
         <v>93932222</v>
       </c>
-      <c r="C256" s="4">
+      <c r="C256" s="37">
         <v>26</v>
       </c>
-      <c r="D256" s="24"/>
-      <c r="E256" s="24"/>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257" s="24" t="s">
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="44" t="s">
         <v>400</v>
       </c>
-      <c r="B257" s="49">
+      <c r="B257" s="45">
         <v>35399703</v>
       </c>
-      <c r="C257" s="4">
+      <c r="C257" s="37">
         <v>26</v>
       </c>
-      <c r="D257" s="24"/>
-      <c r="E257" s="24"/>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" s="24" t="s">
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="44" t="s">
         <v>401</v>
       </c>
-      <c r="B258" s="49">
+      <c r="B258" s="45">
         <v>31269773</v>
       </c>
-      <c r="C258" s="4">
+      <c r="C258" s="37">
         <v>26</v>
       </c>
-      <c r="D258" s="24"/>
-      <c r="E258" s="24"/>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" s="24" t="s">
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="44" t="s">
         <v>402</v>
       </c>
-      <c r="B259" s="49">
+      <c r="B259" s="45">
         <v>94168715</v>
       </c>
-      <c r="C259" s="4">
+      <c r="C259" s="37">
         <v>26</v>
       </c>
-      <c r="D259" s="24"/>
-      <c r="E259" s="24"/>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="24" t="s">
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="44" t="s">
         <v>403</v>
       </c>
-      <c r="B260" s="49">
+      <c r="B260" s="45">
         <v>94331775</v>
       </c>
-      <c r="C260" s="4">
+      <c r="C260" s="37">
         <v>26</v>
       </c>
-      <c r="D260" s="24"/>
-      <c r="E260" s="24"/>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" s="24" t="s">
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="B261" s="49">
+      <c r="B261" s="45">
         <v>30830699</v>
       </c>
-      <c r="C261" s="4">
+      <c r="C261" s="37">
         <v>26</v>
       </c>
-      <c r="D261" s="24"/>
-      <c r="E261" s="24"/>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262" s="24" t="s">
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="44" t="s">
         <v>405</v>
       </c>
-      <c r="B262" s="49">
+      <c r="B262" s="45">
         <v>31073301</v>
       </c>
-      <c r="C262" s="4">
+      <c r="C262" s="37">
         <v>26</v>
       </c>
-      <c r="D262" s="24"/>
-      <c r="E262" s="24"/>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="25" t="s">
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="46" t="s">
         <v>406</v>
       </c>
-      <c r="B263" s="50">
+      <c r="B263" s="47">
         <v>93944021</v>
       </c>
-      <c r="C263" s="4">
+      <c r="C263" s="37">
         <v>26</v>
       </c>
-      <c r="D263" s="25"/>
-      <c r="E263" s="25"/>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" s="25" t="s">
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="B264" s="50">
+      <c r="B264" s="47">
         <v>33879469</v>
       </c>
-      <c r="C264" s="4">
+      <c r="C264" s="37">
         <v>26</v>
       </c>
-      <c r="D264" s="25"/>
-      <c r="E264" s="25"/>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="25" t="s">
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="46" t="s">
         <v>408</v>
       </c>
-      <c r="B265" s="50">
+      <c r="B265" s="47">
         <v>30397996</v>
       </c>
-      <c r="C265" s="4">
+      <c r="C265" s="37">
         <v>26</v>
       </c>
-      <c r="D265" s="25"/>
-      <c r="E265" s="25"/>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" s="25" t="s">
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="46" t="s">
         <v>409</v>
       </c>
-      <c r="B266" s="50">
+      <c r="B266" s="47">
         <v>38916760</v>
       </c>
-      <c r="C266" s="4">
+      <c r="C266" s="37">
         <v>26</v>
       </c>
-      <c r="D266" s="25"/>
-      <c r="E266" s="25"/>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="A267" s="5" t="s">
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B267" s="17">
+      <c r="B267" s="36">
         <v>31165742</v>
       </c>
-      <c r="C267" s="4">
+      <c r="C267" s="37">
         <v>27</v>
       </c>
-      <c r="D267" s="5"/>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268" s="5" t="s">
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="34" t="s">
         <v>416</v>
       </c>
-      <c r="B268" s="17">
+      <c r="B268" s="36">
         <v>33433811</v>
       </c>
-      <c r="C268" s="4">
+      <c r="C268" s="37">
         <v>27</v>
       </c>
-      <c r="D268" s="5"/>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269" s="5" t="s">
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="B269" s="17">
+      <c r="B269" s="36">
         <v>32394054</v>
       </c>
-      <c r="C269" s="4">
+      <c r="C269" s="37">
         <v>27</v>
       </c>
-      <c r="D269" s="5"/>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="A270" s="5" t="s">
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="B270" s="17">
+      <c r="B270" s="36">
         <v>36618060</v>
       </c>
-      <c r="C270" s="4">
+      <c r="C270" s="37">
         <v>27</v>
       </c>
-      <c r="D270" s="5"/>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271" s="5" t="s">
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="B271" s="17">
+      <c r="B271" s="36">
         <v>40705842</v>
       </c>
-      <c r="C271" s="4">
+      <c r="C271" s="37">
         <v>27</v>
       </c>
-      <c r="D271" s="5"/>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" s="5" t="s">
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="B272" s="17">
+      <c r="B272" s="36">
         <v>40718361</v>
       </c>
-      <c r="C272" s="4">
+      <c r="C272" s="37">
         <v>27</v>
       </c>
-      <c r="D272" s="5"/>
-    </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="5" t="s">
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="B273" s="17">
+      <c r="B273" s="36">
         <v>24437149</v>
       </c>
-      <c r="C273" s="4">
+      <c r="C273" s="37">
         <v>27</v>
       </c>
-      <c r="D273" s="5"/>
-    </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="5" t="s">
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="B274" s="17">
+      <c r="B274" s="36">
         <v>30192241</v>
       </c>
-      <c r="C274" s="4">
+      <c r="C274" s="37">
         <v>27</v>
       </c>
-      <c r="D274" s="5"/>
-    </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="5" t="s">
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="B275" s="17">
+      <c r="B275" s="36">
         <v>40947802</v>
       </c>
-      <c r="C275" s="4">
+      <c r="C275" s="37">
         <v>27</v>
       </c>
-      <c r="D275" s="5"/>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="5" t="s">
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="34" t="s">
         <v>424</v>
       </c>
-      <c r="B276" s="17">
+      <c r="B276" s="36">
         <v>39513765</v>
       </c>
-      <c r="C276" s="4">
+      <c r="C276" s="37">
         <v>27</v>
       </c>
-      <c r="D276" s="5"/>
-    </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="5" t="s">
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="B277" s="17">
+      <c r="B277" s="36">
         <v>27702201</v>
       </c>
-      <c r="C277" s="4">
+      <c r="C277" s="37">
         <v>27</v>
       </c>
-      <c r="D277" s="5"/>
-    </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="5" t="s">
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="34" t="s">
         <v>431</v>
       </c>
-      <c r="B278" s="17">
+      <c r="B278" s="36">
         <v>41076212</v>
       </c>
-      <c r="C278" s="4">
+      <c r="C278" s="37">
         <v>28</v>
       </c>
-      <c r="D278" s="5"/>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="5" t="s">
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="34" t="s">
         <v>432</v>
       </c>
-      <c r="B279" s="17">
+      <c r="B279" s="36">
         <v>38850460</v>
       </c>
-      <c r="C279" s="4">
+      <c r="C279" s="37">
         <v>28</v>
       </c>
-      <c r="D279" s="5"/>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="5" t="s">
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="B280" s="17">
+      <c r="B280" s="36">
         <v>95097658</v>
       </c>
-      <c r="C280" s="4">
+      <c r="C280" s="37">
         <v>28</v>
       </c>
-      <c r="D280" s="5"/>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="5" t="s">
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="34" t="s">
         <v>434</v>
       </c>
-      <c r="B281" s="17">
+      <c r="B281" s="36">
         <v>40759557</v>
       </c>
-      <c r="C281" s="4">
+      <c r="C281" s="37">
         <v>28</v>
       </c>
-      <c r="D281" s="5"/>
-    </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="5" t="s">
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="34" t="s">
         <v>435</v>
       </c>
-      <c r="B282" s="17">
+      <c r="B282" s="36">
         <v>24421189</v>
       </c>
-      <c r="C282" s="4">
+      <c r="C282" s="37">
         <v>28</v>
       </c>
-      <c r="D282" s="5"/>
-    </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="5" t="s">
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="34" t="s">
         <v>436</v>
       </c>
-      <c r="B283" s="17">
+      <c r="B283" s="36">
         <v>40705780</v>
       </c>
-      <c r="C283" s="4">
+      <c r="C283" s="37">
         <v>28</v>
       </c>
-      <c r="D283" s="5"/>
-    </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="5" t="s">
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="B284" s="17">
+      <c r="B284" s="36">
         <v>39549531</v>
       </c>
-      <c r="C284" s="4">
+      <c r="C284" s="37">
         <v>28</v>
       </c>
-      <c r="D284" s="5"/>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="5" t="s">
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="B285" s="17">
+      <c r="B285" s="36">
         <v>39168355</v>
       </c>
-      <c r="C285" s="4">
+      <c r="C285" s="37">
         <v>28</v>
       </c>
-      <c r="D285" s="5"/>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="12" t="s">
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="38" t="s">
         <v>448</v>
       </c>
-      <c r="B286" s="48">
+      <c r="B286" s="39">
         <v>38294091</v>
       </c>
-      <c r="C286" s="4">
+      <c r="C286" s="37">
         <v>29</v>
       </c>
-      <c r="D286" s="12"/>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="12" t="s">
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="B287" s="48">
+      <c r="B287" s="39">
         <v>38691481</v>
       </c>
-      <c r="C287" s="4">
+      <c r="C287" s="37">
         <v>29</v>
       </c>
-      <c r="D287" s="12"/>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="12" t="s">
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="B288" s="48">
+      <c r="B288" s="39">
         <v>38865700</v>
       </c>
-      <c r="C288" s="4">
+      <c r="C288" s="37">
         <v>29</v>
       </c>
-      <c r="D288" s="12"/>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="12" t="s">
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="38" t="s">
         <v>449</v>
       </c>
-      <c r="B289" s="48">
+      <c r="B289" s="39">
         <v>39484870</v>
       </c>
-      <c r="C289" s="4">
+      <c r="C289" s="37">
         <v>29</v>
       </c>
-      <c r="D289" s="12"/>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="12" t="s">
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="B290" s="48">
+      <c r="B290" s="39">
         <v>36717074</v>
       </c>
-      <c r="C290" s="4">
+      <c r="C290" s="37">
         <v>29</v>
       </c>
-      <c r="D290" s="12"/>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="12" t="s">
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="38" t="s">
         <v>451</v>
       </c>
-      <c r="B291" s="48">
+      <c r="B291" s="39">
         <v>39150170</v>
       </c>
-      <c r="C291" s="4">
+      <c r="C291" s="37">
         <v>29</v>
       </c>
-      <c r="D291" s="12"/>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="12" t="s">
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="38" t="s">
         <v>452</v>
       </c>
-      <c r="B292" s="48">
+      <c r="B292" s="39">
         <v>37824485</v>
       </c>
-      <c r="C292" s="4">
+      <c r="C292" s="37">
         <v>29</v>
       </c>
-      <c r="D292" s="12"/>
-    </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="12" t="s">
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="38" t="s">
         <v>453</v>
       </c>
-      <c r="B293" s="48">
+      <c r="B293" s="39">
         <v>38017690</v>
       </c>
-      <c r="C293" s="4">
+      <c r="C293" s="37">
         <v>29</v>
       </c>
-      <c r="D293" s="12"/>
-    </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="12" t="s">
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="38" t="s">
         <v>454</v>
       </c>
-      <c r="B294" s="48">
+      <c r="B294" s="39">
         <v>38016802</v>
       </c>
-      <c r="C294" s="4">
+      <c r="C294" s="37">
         <v>29</v>
       </c>
-      <c r="D294" s="12"/>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="12" t="s">
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="38" t="s">
         <v>455</v>
       </c>
-      <c r="B295" s="48">
+      <c r="B295" s="39">
         <v>38017428</v>
       </c>
-      <c r="C295" s="4">
+      <c r="C295" s="37">
         <v>29</v>
       </c>
-      <c r="D295" s="12"/>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="12" t="s">
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="38" t="s">
         <v>456</v>
       </c>
-      <c r="B296" s="48">
+      <c r="B296" s="39">
         <v>37352830</v>
       </c>
-      <c r="C296" s="4">
+      <c r="C296" s="37">
         <v>29</v>
       </c>
-      <c r="D296" s="12"/>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="5" t="s">
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="34" t="s">
         <v>462</v>
       </c>
-      <c r="B297" s="17">
+      <c r="B297" s="36">
         <v>0</v>
       </c>
-      <c r="C297" s="4">
+      <c r="C297" s="37">
         <v>30</v>
       </c>
-      <c r="D297" s="5"/>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="5" t="s">
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="34" t="s">
         <v>463</v>
       </c>
-      <c r="B298" s="17">
+      <c r="B298" s="36">
         <v>31617115</v>
       </c>
-      <c r="C298" s="4">
+      <c r="C298" s="37">
         <v>30</v>
       </c>
-      <c r="D298" s="5"/>
-    </row>
-    <row r="299" spans="1:4">
-      <c r="A299" s="5" t="s">
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="34" t="s">
         <v>464</v>
       </c>
-      <c r="B299" s="17">
+      <c r="B299" s="36">
         <v>34169838</v>
       </c>
-      <c r="C299" s="4">
+      <c r="C299" s="37">
         <v>30</v>
       </c>
-      <c r="D299" s="5"/>
-    </row>
-    <row r="300" spans="1:4">
-      <c r="A300" s="7" t="s">
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="B300" s="17">
+      <c r="B300" s="36">
         <v>38835423</v>
       </c>
-      <c r="C300" s="4">
+      <c r="C300" s="37">
         <v>30</v>
       </c>
-      <c r="D300" s="5"/>
-    </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="5" t="s">
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="34" t="s">
         <v>466</v>
       </c>
-      <c r="B301" s="17">
+      <c r="B301" s="36">
         <v>28864486</v>
       </c>
-      <c r="C301" s="4">
+      <c r="C301" s="37">
         <v>30</v>
       </c>
-      <c r="D301" s="5"/>
-    </row>
-    <row r="302" spans="1:4">
-      <c r="A302" s="5" t="s">
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="34" t="s">
         <v>467</v>
       </c>
-      <c r="B302" s="17">
+      <c r="B302" s="36">
         <v>33803247</v>
       </c>
-      <c r="C302" s="4">
+      <c r="C302" s="37">
         <v>30</v>
       </c>
-      <c r="D302" s="5"/>
-    </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="5" t="s">
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="34" t="s">
         <v>468</v>
       </c>
-      <c r="B303" s="17">
+      <c r="B303" s="36">
         <v>25223003</v>
       </c>
-      <c r="C303" s="4">
+      <c r="C303" s="37">
         <v>30</v>
       </c>
-      <c r="D303" s="5"/>
-    </row>
-    <row r="304" spans="1:4">
-      <c r="A304" s="5" t="s">
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="B304" s="17">
+      <c r="B304" s="36">
         <v>31531800</v>
       </c>
-      <c r="C304" s="4">
+      <c r="C304" s="37">
         <v>30</v>
       </c>
-      <c r="D304" s="5"/>
-    </row>
-    <row r="305" spans="1:4">
-      <c r="A305" s="5" t="s">
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="B305" s="17">
+      <c r="B305" s="36">
         <v>28409710</v>
       </c>
-      <c r="C305" s="4">
+      <c r="C305" s="37">
         <v>30</v>
       </c>
-      <c r="D305" s="5"/>
-    </row>
-    <row r="306" spans="1:4">
-      <c r="A306" s="5" t="s">
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="B306" s="17">
+      <c r="B306" s="36">
         <v>33006029</v>
       </c>
-      <c r="C306" s="4">
+      <c r="C306" s="37">
         <v>30</v>
       </c>
-      <c r="D306" s="5"/>
-    </row>
-    <row r="307" spans="1:4">
-      <c r="A307" s="5" t="s">
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="34" t="s">
         <v>472</v>
       </c>
-      <c r="B307" s="17">
+      <c r="B307" s="36">
         <v>30426818</v>
       </c>
-      <c r="C307" s="4">
+      <c r="C307" s="37">
         <v>30</v>
       </c>
-      <c r="D307" s="5"/>
-    </row>
-    <row r="308" spans="1:4">
-      <c r="A308" s="5" t="s">
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="B308" s="17">
+      <c r="B308" s="36">
         <v>35721028</v>
       </c>
-      <c r="C308" s="4">
+      <c r="C308" s="37">
         <v>30</v>
       </c>
-      <c r="D308" s="5"/>
-    </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="5" t="s">
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="34" t="s">
         <v>474</v>
       </c>
-      <c r="B309" s="17">
+      <c r="B309" s="36">
         <v>30988288</v>
       </c>
-      <c r="C309" s="4">
+      <c r="C309" s="37">
         <v>30</v>
       </c>
-      <c r="D309" s="5"/>
-    </row>
-    <row r="310" spans="1:4">
-      <c r="A310" s="5" t="s">
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="34" t="s">
         <v>475</v>
       </c>
-      <c r="B310" s="17">
+      <c r="B310" s="36">
         <v>29993286</v>
       </c>
-      <c r="C310" s="4">
+      <c r="C310" s="37">
         <v>30</v>
       </c>
-      <c r="D310" s="5"/>
-    </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="5" t="s">
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="34" t="s">
         <v>476</v>
       </c>
-      <c r="B311" s="17">
+      <c r="B311" s="36">
         <v>29684882</v>
       </c>
-      <c r="C311" s="4">
+      <c r="C311" s="37">
         <v>30</v>
       </c>
-      <c r="D311" s="5"/>
-    </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="5" t="s">
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="B312" s="17">
+      <c r="B312" s="36">
         <v>31940737</v>
       </c>
-      <c r="C312" s="4">
+      <c r="C312" s="37">
         <v>30</v>
       </c>
-      <c r="D312" s="5"/>
-    </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="5" t="s">
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="B313" s="17">
+      <c r="B313" s="36">
         <v>31204299</v>
       </c>
-      <c r="C313" s="4">
+      <c r="C313" s="37">
         <v>30</v>
       </c>
-      <c r="D313" s="5"/>
-    </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="5" t="s">
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="B314" s="17">
+      <c r="B314" s="36">
         <v>0</v>
       </c>
-      <c r="C314" s="4">
+      <c r="C314" s="37">
         <v>30</v>
       </c>
-      <c r="D314" s="5"/>
-    </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="5" t="s">
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="B315" s="17">
+      <c r="B315" s="36">
         <v>0</v>
       </c>
-      <c r="C315" s="4">
+      <c r="C315" s="37">
         <v>30</v>
       </c>
-      <c r="D315" s="5"/>
-    </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="5" t="s">
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="B316" s="17">
+      <c r="B316" s="36">
         <v>29684264</v>
       </c>
-      <c r="C316" s="4">
+      <c r="C316" s="37">
         <v>31</v>
       </c>
-      <c r="D316" s="5"/>
-    </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="5" t="s">
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="B317" s="17">
+      <c r="B317" s="36">
         <v>30728485</v>
       </c>
-      <c r="C317" s="4">
+      <c r="C317" s="37">
         <v>31</v>
       </c>
-      <c r="D317" s="5"/>
-    </row>
-    <row r="318" spans="1:4">
-      <c r="A318" s="5" t="s">
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="B318" s="17">
+      <c r="B318" s="36">
         <v>39801438</v>
       </c>
-      <c r="C318" s="4">
+      <c r="C318" s="37">
         <v>31</v>
       </c>
-      <c r="D318" s="5"/>
-    </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="5" t="s">
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="34" t="s">
         <v>489</v>
       </c>
-      <c r="B319" s="17">
+      <c r="B319" s="36">
         <v>32312940</v>
       </c>
-      <c r="C319" s="4">
+      <c r="C319" s="37">
         <v>31</v>
       </c>
-      <c r="D319" s="5"/>
-    </row>
-    <row r="320" spans="1:4">
-      <c r="A320" s="5" t="s">
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="34" t="s">
         <v>490</v>
       </c>
-      <c r="B320" s="17">
+      <c r="B320" s="36">
         <v>30777420</v>
       </c>
-      <c r="C320" s="4">
+      <c r="C320" s="37">
         <v>31</v>
       </c>
-      <c r="D320" s="5"/>
-    </row>
-    <row r="321" spans="1:4">
-      <c r="A321" s="5" t="s">
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="34" t="s">
         <v>491</v>
       </c>
-      <c r="B321" s="17">
+      <c r="B321" s="36">
         <v>29764402</v>
       </c>
-      <c r="C321" s="4">
+      <c r="C321" s="37">
         <v>31</v>
       </c>
-      <c r="D321" s="5"/>
-    </row>
-    <row r="322" spans="1:4">
-      <c r="A322" s="5" t="s">
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="34" t="s">
         <v>492</v>
       </c>
-      <c r="B322" s="17">
+      <c r="B322" s="36">
         <v>30487054</v>
       </c>
-      <c r="C322" s="4">
+      <c r="C322" s="37">
         <v>31</v>
       </c>
-      <c r="D322" s="5"/>
-    </row>
-    <row r="323" spans="1:4">
-      <c r="A323" s="5" t="s">
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="34" t="s">
         <v>493</v>
       </c>
-      <c r="B323" s="17">
+      <c r="B323" s="36">
         <v>31940707</v>
       </c>
-      <c r="C323" s="4">
+      <c r="C323" s="37">
         <v>31</v>
       </c>
-      <c r="D323" s="5"/>
-    </row>
-    <row r="324" spans="1:4">
-      <c r="A324" s="5" t="s">
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="34" t="s">
         <v>501</v>
       </c>
-      <c r="B324" s="17">
+      <c r="B324" s="36">
         <v>38865341</v>
       </c>
-      <c r="C324" s="4">
+      <c r="C324" s="37">
         <v>32</v>
       </c>
-      <c r="D324" s="5"/>
-    </row>
-    <row r="325" spans="1:4">
-      <c r="A325" s="5" t="s">
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="34" t="s">
         <v>502</v>
       </c>
-      <c r="B325" s="17">
+      <c r="B325" s="36">
         <v>39335719</v>
       </c>
-      <c r="C325" s="4">
+      <c r="C325" s="37">
         <v>32</v>
       </c>
-      <c r="D325" s="5"/>
-    </row>
-    <row r="326" spans="1:4">
-      <c r="A326" s="5" t="s">
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="34" t="s">
         <v>503</v>
       </c>
-      <c r="B326" s="17">
+      <c r="B326" s="36">
         <v>38917076</v>
       </c>
-      <c r="C326" s="4">
+      <c r="C326" s="37">
         <v>32</v>
       </c>
-      <c r="D326" s="5"/>
-    </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="5" t="s">
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="B327" s="17">
+      <c r="B327" s="36">
         <v>39280924</v>
       </c>
-      <c r="C327" s="4">
+      <c r="C327" s="37">
         <v>32</v>
       </c>
-      <c r="D327" s="5"/>
-    </row>
-    <row r="328" spans="1:4">
-      <c r="A328" s="5" t="s">
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="34" t="s">
         <v>505</v>
       </c>
-      <c r="B328" s="17">
+      <c r="B328" s="36">
         <v>38669260</v>
       </c>
-      <c r="C328" s="4">
+      <c r="C328" s="37">
         <v>32</v>
       </c>
-      <c r="D328" s="5"/>
-    </row>
-    <row r="329" spans="1:4">
-      <c r="A329" s="5" t="s">
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="34" t="s">
         <v>506</v>
       </c>
-      <c r="B329" s="17">
+      <c r="B329" s="36">
         <v>94816160</v>
       </c>
-      <c r="C329" s="4">
+      <c r="C329" s="37">
         <v>32</v>
       </c>
-      <c r="D329" s="5"/>
-    </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="5" t="s">
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="34" t="s">
         <v>507</v>
       </c>
-      <c r="B330" s="17">
+      <c r="B330" s="36">
         <v>38863011</v>
       </c>
-      <c r="C330" s="4">
+      <c r="C330" s="37">
         <v>32</v>
       </c>
-      <c r="D330" s="5"/>
-    </row>
-    <row r="331" spans="1:4">
-      <c r="A331" s="5" t="s">
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="34" t="s">
         <v>508</v>
       </c>
-      <c r="B331" s="17">
+      <c r="B331" s="36">
         <v>39592807</v>
       </c>
-      <c r="C331" s="4">
+      <c r="C331" s="37">
         <v>32</v>
       </c>
-      <c r="D331" s="5"/>
-    </row>
-    <row r="332" spans="1:4">
-      <c r="A332" s="5" t="s">
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="34" t="s">
         <v>509</v>
       </c>
-      <c r="B332" s="17">
+      <c r="B332" s="36">
         <v>38696342</v>
       </c>
-      <c r="C332" s="4">
+      <c r="C332" s="37">
         <v>32</v>
       </c>
-      <c r="D332" s="5"/>
-    </row>
-    <row r="333" spans="1:4">
-      <c r="A333" s="5" t="s">
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="34" t="s">
         <v>510</v>
       </c>
-      <c r="B333" s="17">
+      <c r="B333" s="36">
         <v>39484573</v>
       </c>
-      <c r="C333" s="4">
+      <c r="C333" s="37">
         <v>32</v>
       </c>
-      <c r="D333" s="5"/>
-    </row>
-    <row r="334" spans="1:4">
-      <c r="A334" s="5" t="s">
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="34" t="s">
         <v>511</v>
       </c>
-      <c r="B334" s="17">
+      <c r="B334" s="36">
         <v>36585835</v>
       </c>
-      <c r="C334" s="4">
+      <c r="C334" s="37">
         <v>32</v>
       </c>
-      <c r="D334" s="5"/>
-    </row>
-    <row r="335" spans="1:4">
-      <c r="A335" s="29" t="s">
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="48" t="s">
         <v>516</v>
       </c>
-      <c r="B335" s="51">
+      <c r="B335" s="49">
         <v>22416062</v>
       </c>
-      <c r="C335" s="4">
+      <c r="C335" s="37">
         <v>33</v>
       </c>
-      <c r="D335" s="30"/>
-    </row>
-    <row r="336" spans="1:4">
-      <c r="A336" s="29" t="s">
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="48" t="s">
         <v>512</v>
       </c>
-      <c r="B336" s="51">
+      <c r="B336" s="49">
         <v>24546265</v>
       </c>
-      <c r="C336" s="4">
+      <c r="C336" s="37">
         <v>33</v>
       </c>
-      <c r="D336" s="30"/>
-    </row>
-    <row r="337" spans="1:4">
-      <c r="A337" s="29" t="s">
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="48" t="s">
         <v>517</v>
       </c>
-      <c r="B337" s="51">
+      <c r="B337" s="49">
         <v>25476704</v>
       </c>
-      <c r="C337" s="4">
+      <c r="C337" s="37">
         <v>33</v>
       </c>
-      <c r="D337" s="30"/>
-    </row>
-    <row r="338" spans="1:4">
-      <c r="A338" s="5" t="s">
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="34" t="s">
         <v>518</v>
       </c>
-      <c r="B338" s="17">
+      <c r="B338" s="36">
         <v>33408893</v>
       </c>
-      <c r="C338" s="4">
+      <c r="C338" s="37">
         <v>33</v>
       </c>
-      <c r="D338" s="5"/>
-    </row>
-    <row r="339" spans="1:4">
-      <c r="A339" s="30" t="s">
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="50" t="s">
         <v>519</v>
       </c>
-      <c r="B339" s="51">
+      <c r="B339" s="49">
         <v>33314183</v>
       </c>
-      <c r="C339" s="4">
+      <c r="C339" s="37">
         <v>33</v>
       </c>
-      <c r="D339" s="30"/>
-    </row>
-    <row r="340" spans="1:4">
-      <c r="A340" s="29" t="s">
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="48" t="s">
         <v>520</v>
       </c>
-      <c r="B340" s="51">
+      <c r="B340" s="49">
         <v>25968360</v>
       </c>
-      <c r="C340" s="4">
+      <c r="C340" s="37">
         <v>33</v>
       </c>
-      <c r="D340" s="30"/>
-    </row>
-    <row r="341" spans="1:4">
-      <c r="A341" s="29" t="s">
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="48" t="s">
         <v>521</v>
       </c>
-      <c r="B341" s="51">
+      <c r="B341" s="49">
         <v>23343008</v>
       </c>
-      <c r="C341" s="4">
+      <c r="C341" s="37">
         <v>33</v>
       </c>
-      <c r="D341" s="30"/>
-    </row>
-    <row r="342" spans="1:4">
-      <c r="A342" s="31" t="s">
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="51" t="s">
         <v>522</v>
       </c>
       <c r="B342" s="52">
         <v>31976484</v>
       </c>
-      <c r="C342" s="4">
+      <c r="C342" s="37">
         <v>33</v>
       </c>
-      <c r="D342" s="31"/>
-    </row>
-    <row r="343" spans="1:4">
-      <c r="A343" s="5" t="s">
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="34" t="s">
         <v>523</v>
       </c>
-      <c r="B343" s="17">
+      <c r="B343" s="36">
         <v>35685428</v>
       </c>
-      <c r="C343" s="4">
+      <c r="C343" s="37">
         <v>33</v>
       </c>
-      <c r="D343" s="5"/>
-    </row>
-    <row r="344" spans="1:4">
-      <c r="A344" s="30" t="s">
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="B344" s="51">
+      <c r="B344" s="49">
         <v>25273269</v>
       </c>
-      <c r="C344" s="4">
+      <c r="C344" s="37">
         <v>33</v>
       </c>
-      <c r="D344" s="30"/>
-    </row>
-    <row r="345" spans="1:4">
-      <c r="A345" s="30" t="s">
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="50" t="s">
         <v>525</v>
       </c>
-      <c r="B345" s="51">
+      <c r="B345" s="49">
         <v>26693643</v>
       </c>
-      <c r="C345" s="4">
+      <c r="C345" s="37">
         <v>33</v>
       </c>
-      <c r="D345" s="30"/>
-    </row>
-    <row r="346" spans="1:4">
-      <c r="A346" s="5" t="s">
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="34" t="s">
         <v>526</v>
       </c>
-      <c r="B346" s="17">
+      <c r="B346" s="36">
         <v>26576927</v>
       </c>
-      <c r="C346" s="4">
+      <c r="C346" s="37">
         <v>33</v>
       </c>
-      <c r="D346" s="5"/>
-    </row>
-    <row r="347" spans="1:4">
-      <c r="A347" s="5" t="s">
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="34" t="s">
         <v>534</v>
       </c>
-      <c r="B347" s="17">
+      <c r="B347" s="36">
         <v>94739297</v>
       </c>
-      <c r="C347" s="4">
+      <c r="C347" s="37">
         <v>34</v>
       </c>
-      <c r="D347" s="5"/>
-    </row>
-    <row r="348" spans="1:4">
-      <c r="A348" s="5" t="s">
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="34" t="s">
         <v>535</v>
       </c>
-      <c r="B348" s="17">
+      <c r="B348" s="36">
         <v>6901412</v>
       </c>
-      <c r="C348" s="4">
+      <c r="C348" s="37">
         <v>34</v>
       </c>
-      <c r="D348" s="5"/>
-    </row>
-    <row r="349" spans="1:4">
-      <c r="A349" s="5" t="s">
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="34" t="s">
         <v>536</v>
       </c>
-      <c r="B349" s="17">
+      <c r="B349" s="36">
         <v>42835941</v>
       </c>
-      <c r="C349" s="4">
+      <c r="C349" s="37">
         <v>34</v>
       </c>
-      <c r="D349" s="5"/>
-    </row>
-    <row r="350" spans="1:4">
-      <c r="A350" s="5" t="s">
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="34" t="s">
         <v>537</v>
       </c>
-      <c r="B350" s="17">
+      <c r="B350" s="36">
         <v>37928375</v>
       </c>
-      <c r="C350" s="4">
+      <c r="C350" s="37">
         <v>34</v>
       </c>
-      <c r="D350" s="5"/>
-    </row>
-    <row r="351" spans="1:4">
-      <c r="A351" s="5" t="s">
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="34" t="s">
         <v>538</v>
       </c>
-      <c r="B351" s="17">
+      <c r="B351" s="36">
         <v>38168599</v>
       </c>
-      <c r="C351" s="4">
+      <c r="C351" s="37">
         <v>34</v>
       </c>
-      <c r="D351" s="5"/>
-    </row>
-    <row r="352" spans="1:4">
-      <c r="A352" s="5" t="s">
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="B352" s="17">
+      <c r="B352" s="36">
         <v>38219326</v>
       </c>
-      <c r="C352" s="4">
+      <c r="C352" s="37">
         <v>34</v>
       </c>
-      <c r="D352" s="5"/>
-    </row>
-    <row r="353" spans="1:4">
-      <c r="A353" s="5" t="s">
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="B353" s="17">
+      <c r="B353" s="36">
         <v>93971580</v>
       </c>
-      <c r="C353" s="4">
+      <c r="C353" s="37">
         <v>34</v>
       </c>
-      <c r="D353" s="5"/>
-    </row>
-    <row r="354" spans="1:4">
-      <c r="A354" s="5" t="s">
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="B354" s="17">
+      <c r="B354" s="36">
         <v>38045417</v>
       </c>
-      <c r="C354" s="4">
+      <c r="C354" s="37">
         <v>35</v>
       </c>
-      <c r="D354" s="5"/>
-    </row>
-    <row r="355" spans="1:4">
-      <c r="A355" s="5" t="s">
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="34" t="s">
         <v>545</v>
       </c>
-      <c r="B355" s="17">
+      <c r="B355" s="36">
         <v>22132736</v>
       </c>
-      <c r="C355" s="4">
+      <c r="C355" s="37">
         <v>35</v>
       </c>
-      <c r="D355" s="5"/>
-    </row>
-    <row r="356" spans="1:4">
-      <c r="A356" s="5" t="s">
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="34" t="s">
         <v>548</v>
       </c>
-      <c r="B356" s="17">
+      <c r="B356" s="36">
         <v>36758075</v>
       </c>
-      <c r="C356" s="4">
+      <c r="C356" s="37">
         <v>35</v>
       </c>
-      <c r="D356" s="5"/>
-    </row>
-    <row r="357" spans="1:4">
-      <c r="A357" s="5" t="s">
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="34" t="s">
         <v>549</v>
       </c>
-      <c r="B357" s="17">
+      <c r="B357" s="36">
         <v>38865963</v>
       </c>
-      <c r="C357" s="4">
+      <c r="C357" s="37">
         <v>35</v>
       </c>
-      <c r="D357" s="5"/>
-    </row>
-    <row r="358" spans="1:4">
-      <c r="A358" s="5" t="s">
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="34" t="s">
         <v>550</v>
       </c>
-      <c r="B358" s="17">
+      <c r="B358" s="36">
         <v>39554740</v>
       </c>
-      <c r="C358" s="4">
+      <c r="C358" s="37">
         <v>35</v>
       </c>
-      <c r="D358" s="5"/>
-    </row>
-    <row r="359" spans="1:4">
-      <c r="A359" s="5" t="s">
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="34" t="s">
         <v>551</v>
       </c>
-      <c r="B359" s="17">
+      <c r="B359" s="36">
         <v>37928080</v>
       </c>
-      <c r="C359" s="4">
+      <c r="C359" s="37">
         <v>35</v>
       </c>
-      <c r="D359" s="5"/>
-    </row>
-    <row r="360" spans="1:4">
-      <c r="A360" s="5" t="s">
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="34" t="s">
         <v>552</v>
       </c>
-      <c r="B360" s="17">
+      <c r="B360" s="36">
         <v>38865779</v>
       </c>
-      <c r="C360" s="4">
+      <c r="C360" s="37">
         <v>35</v>
       </c>
-      <c r="D360" s="5"/>
-    </row>
-    <row r="361" spans="1:4">
-      <c r="A361" s="5" t="s">
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="34" t="s">
         <v>553</v>
       </c>
-      <c r="B361" s="17">
+      <c r="B361" s="36">
         <v>37610234</v>
       </c>
-      <c r="C361" s="4">
+      <c r="C361" s="37">
         <v>35</v>
       </c>
-      <c r="D361" s="5"/>
-    </row>
-    <row r="362" spans="1:4">
-      <c r="A362" s="5" t="s">
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="34" t="s">
         <v>554</v>
       </c>
-      <c r="B362" s="17">
+      <c r="B362" s="36">
         <v>39150856</v>
       </c>
-      <c r="C362" s="4">
+      <c r="C362" s="37">
         <v>35</v>
       </c>
-      <c r="D362" s="5"/>
-    </row>
-    <row r="363" spans="1:4">
-      <c r="A363" s="5" t="s">
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="34" t="s">
         <v>555</v>
       </c>
-      <c r="B363" s="17">
+      <c r="B363" s="36">
         <v>38691724</v>
       </c>
-      <c r="C363" s="4">
+      <c r="C363" s="37">
         <v>35</v>
       </c>
-      <c r="D363" s="5"/>
-    </row>
-    <row r="364" spans="1:4">
-      <c r="A364" s="5" t="s">
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="34" t="s">
         <v>556</v>
       </c>
-      <c r="B364" s="17">
+      <c r="B364" s="36">
         <v>38146860</v>
       </c>
-      <c r="C364" s="4">
+      <c r="C364" s="37">
         <v>35</v>
       </c>
-      <c r="D364" s="5"/>
-    </row>
-    <row r="365" spans="1:4">
-      <c r="A365" s="5" t="s">
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="34" t="s">
         <v>557</v>
       </c>
-      <c r="B365" s="17">
+      <c r="B365" s="36">
         <v>38271762</v>
       </c>
-      <c r="C365" s="4">
+      <c r="C365" s="37">
         <v>35</v>
       </c>
-      <c r="D365" s="5"/>
-    </row>
-    <row r="366" spans="1:4">
-      <c r="A366" s="5" t="s">
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="34" t="s">
         <v>558</v>
       </c>
-      <c r="B366" s="17">
+      <c r="B366" s="36">
         <v>38511102</v>
       </c>
-      <c r="C366" s="4">
+      <c r="C366" s="37">
         <v>35</v>
       </c>
-      <c r="D366" s="5"/>
-    </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="5" t="s">
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="34" t="s">
         <v>559</v>
       </c>
-      <c r="B367" s="17">
+      <c r="B367" s="36">
         <v>32005747</v>
       </c>
-      <c r="C367" s="4">
+      <c r="C367" s="37">
         <v>35</v>
       </c>
-      <c r="D367" s="5"/>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="12" t="s">
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="38" t="s">
         <v>565</v>
       </c>
-      <c r="B368" s="48">
+      <c r="B368" s="39">
         <v>34947152</v>
       </c>
-      <c r="C368" s="4">
+      <c r="C368" s="37">
         <v>36</v>
       </c>
-      <c r="D368" s="12"/>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="12" t="s">
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="38" t="s">
         <v>566</v>
       </c>
-      <c r="B369" s="48">
+      <c r="B369" s="39">
         <v>36936176</v>
       </c>
-      <c r="C369" s="4">
+      <c r="C369" s="37">
         <v>36</v>
       </c>
-      <c r="D369" s="12"/>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="12" t="s">
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="38" t="s">
         <v>567</v>
       </c>
-      <c r="B370" s="48">
+      <c r="B370" s="39">
         <v>35720726</v>
       </c>
-      <c r="C370" s="4">
+      <c r="C370" s="37">
         <v>36</v>
       </c>
-      <c r="D370" s="12"/>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="12" t="s">
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="38" t="s">
         <v>568</v>
       </c>
-      <c r="B371" s="48">
+      <c r="B371" s="39">
         <v>36779443</v>
       </c>
-      <c r="C371" s="4">
+      <c r="C371" s="37">
         <v>36</v>
       </c>
-      <c r="D371" s="12"/>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="12" t="s">
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="38" t="s">
         <v>569</v>
       </c>
-      <c r="B372" s="48">
+      <c r="B372" s="39">
         <v>35720644</v>
       </c>
-      <c r="C372" s="4">
+      <c r="C372" s="37">
         <v>36</v>
       </c>
-      <c r="D372" s="12"/>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="12" t="s">
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="38" t="s">
         <v>570</v>
       </c>
-      <c r="B373" s="48">
+      <c r="B373" s="39">
         <v>36785209</v>
       </c>
-      <c r="C373" s="4">
+      <c r="C373" s="37">
         <v>36</v>
       </c>
-      <c r="D373" s="12"/>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="12" t="s">
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="38" t="s">
         <v>571</v>
       </c>
-      <c r="B374" s="48">
+      <c r="B374" s="39">
         <v>35179815</v>
       </c>
-      <c r="C374" s="4">
+      <c r="C374" s="37">
         <v>36</v>
       </c>
-      <c r="D374" s="12"/>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="12" t="s">
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="38" t="s">
         <v>572</v>
       </c>
-      <c r="B375" s="48">
+      <c r="B375" s="39">
         <v>37667225</v>
       </c>
-      <c r="C375" s="4">
+      <c r="C375" s="37">
         <v>36</v>
       </c>
-      <c r="D375" s="12"/>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="12" t="s">
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="38" t="s">
         <v>573</v>
       </c>
-      <c r="B376" s="48">
+      <c r="B376" s="39">
         <v>37260020</v>
       </c>
-      <c r="C376" s="4">
+      <c r="C376" s="37">
         <v>36</v>
       </c>
-      <c r="D376" s="12"/>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="12" t="s">
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="38" t="s">
         <v>574</v>
       </c>
-      <c r="B377" s="48">
+      <c r="B377" s="39">
         <v>38669244</v>
       </c>
-      <c r="C377" s="4">
+      <c r="C377" s="37">
         <v>36</v>
       </c>
-      <c r="D377" s="12"/>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="5" t="s">
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="34" t="s">
         <v>584</v>
       </c>
       <c r="B378" s="53">
         <v>33003670</v>
       </c>
-      <c r="C378" s="4">
+      <c r="C378" s="37">
         <v>37</v>
       </c>
-      <c r="D378" s="32"/>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="5" t="s">
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="34" t="s">
         <v>585</v>
       </c>
       <c r="B379" s="53">
         <v>33668036</v>
       </c>
-      <c r="C379" s="4">
+      <c r="C379" s="37">
         <v>37</v>
       </c>
-      <c r="D379" s="32"/>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="5" t="s">
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="34" t="s">
         <v>586</v>
       </c>
       <c r="B380" s="53">
         <v>33186145</v>
       </c>
-      <c r="C380" s="4">
+      <c r="C380" s="37">
         <v>37</v>
       </c>
-      <c r="D380" s="32"/>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="5" t="s">
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="34" t="s">
         <v>587</v>
       </c>
       <c r="B381" s="53">
         <v>36036237</v>
       </c>
-      <c r="C381" s="4">
+      <c r="C381" s="37">
         <v>37</v>
       </c>
-      <c r="D381" s="32"/>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="5" t="s">
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="34" t="s">
         <v>588</v>
       </c>
       <c r="B382" s="53">
         <v>34295993</v>
       </c>
-      <c r="C382" s="4">
+      <c r="C382" s="37">
         <v>37</v>
       </c>
-      <c r="D382" s="32"/>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="5" t="s">
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="34" t="s">
         <v>589</v>
       </c>
       <c r="B383" s="53">
         <v>33483396</v>
       </c>
-      <c r="C383" s="4">
+      <c r="C383" s="37">
         <v>37</v>
       </c>
-      <c r="D383" s="32"/>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="5" t="s">
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="34" t="s">
         <v>590</v>
       </c>
       <c r="B384" s="53">
         <v>32286487</v>
       </c>
-      <c r="C384" s="4">
+      <c r="C384" s="37">
         <v>37</v>
       </c>
-      <c r="D384" s="32"/>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="5" t="s">
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="34" t="s">
         <v>591</v>
       </c>
       <c r="B385" s="53">
         <v>34502945</v>
       </c>
-      <c r="C385" s="4">
+      <c r="C385" s="37">
         <v>37</v>
       </c>
-      <c r="D385" s="32"/>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="5" t="s">
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="34" t="s">
         <v>592</v>
       </c>
       <c r="B386" s="53">
         <v>31078106</v>
       </c>
-      <c r="C386" s="4">
+      <c r="C386" s="37">
         <v>37</v>
       </c>
-      <c r="D386" s="32"/>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="5" t="s">
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="34" t="s">
         <v>593</v>
       </c>
-      <c r="B387" s="17">
+      <c r="B387" s="36">
         <v>32147382</v>
       </c>
-      <c r="C387" s="4">
+      <c r="C387" s="37">
         <v>37</v>
       </c>
-      <c r="D387" s="5"/>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="5" t="s">
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="34" t="s">
         <v>594</v>
       </c>
-      <c r="B388" s="17">
+      <c r="B388" s="36">
         <v>33963594</v>
       </c>
-      <c r="C388" s="4">
+      <c r="C388" s="37">
         <v>37</v>
       </c>
-      <c r="D388" s="5"/>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="5" t="s">
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="34" t="s">
         <v>595</v>
       </c>
-      <c r="B389" s="17">
+      <c r="B389" s="36">
         <v>38227646</v>
       </c>
-      <c r="C389" s="4">
+      <c r="C389" s="37">
         <v>37</v>
       </c>
-      <c r="D389" s="5"/>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="5" t="s">
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="34" t="s">
         <v>596</v>
       </c>
-      <c r="B390" s="17">
+      <c r="B390" s="36">
         <v>32393114</v>
       </c>
-      <c r="C390" s="4">
+      <c r="C390" s="37">
         <v>37</v>
       </c>
-      <c r="D390" s="5"/>
-    </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="5" t="s">
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="34" t="s">
         <v>597</v>
       </c>
-      <c r="B391" s="17">
+      <c r="B391" s="36">
         <v>34593049</v>
       </c>
-      <c r="C391" s="4">
+      <c r="C391" s="37">
         <v>37</v>
       </c>
-      <c r="D391" s="5"/>
-    </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="5" t="s">
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="34" t="s">
         <v>598</v>
       </c>
-      <c r="B392" s="17">
+      <c r="B392" s="36">
         <v>0</v>
       </c>
-      <c r="C392" s="4">
+      <c r="C392" s="37">
         <v>37</v>
       </c>
-      <c r="D392" s="5"/>
-    </row>
-    <row r="393" spans="1:4">
-      <c r="A393" s="5" t="s">
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="34" t="s">
         <v>599</v>
       </c>
-      <c r="B393" s="17">
+      <c r="B393" s="36">
         <v>0</v>
       </c>
-      <c r="C393" s="4">
+      <c r="C393" s="37">
         <v>37</v>
       </c>
-      <c r="D393" s="5"/>
-    </row>
-    <row r="394" spans="1:4">
-      <c r="A394" s="5" t="s">
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="34" t="s">
         <v>600</v>
       </c>
-      <c r="B394" s="17">
+      <c r="B394" s="36">
         <v>0</v>
       </c>
-      <c r="C394" s="4">
+      <c r="C394" s="37">
         <v>37</v>
       </c>
-      <c r="D394" s="5"/>
-    </row>
-    <row r="395" spans="1:4">
-      <c r="A395" s="5" t="s">
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="34" t="s">
         <v>601</v>
       </c>
-      <c r="B395" s="17">
+      <c r="B395" s="36">
         <v>33956998</v>
       </c>
-      <c r="C395" s="4">
+      <c r="C395" s="37">
         <v>37</v>
       </c>
-      <c r="D395" s="5"/>
-    </row>
-    <row r="396" spans="1:4">
-      <c r="A396" s="5" t="s">
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="34" t="s">
         <v>602</v>
       </c>
-      <c r="B396" s="17">
+      <c r="B396" s="36">
         <v>0</v>
       </c>
-      <c r="C396" s="4">
+      <c r="C396" s="37">
         <v>37</v>
       </c>
-      <c r="D396" s="5"/>
-    </row>
-    <row r="397" spans="1:4">
-      <c r="A397" s="5" t="s">
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="34" t="s">
         <v>608</v>
       </c>
-      <c r="B397" s="17">
+      <c r="B397" s="36">
         <v>21577875</v>
       </c>
-      <c r="C397" s="4">
+      <c r="C397" s="37">
         <v>38</v>
       </c>
-      <c r="D397" s="5"/>
-    </row>
-    <row r="398" spans="1:4">
-      <c r="A398" s="5" t="s">
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="34" t="s">
         <v>609</v>
       </c>
-      <c r="B398" s="17">
+      <c r="B398" s="36">
         <v>27621772</v>
       </c>
-      <c r="C398" s="4">
+      <c r="C398" s="37">
         <v>38</v>
       </c>
-      <c r="D398" s="5"/>
-    </row>
-    <row r="399" spans="1:4">
-      <c r="A399" s="5" t="s">
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="34" t="s">
         <v>610</v>
       </c>
-      <c r="B399" s="17">
+      <c r="B399" s="36">
         <v>36757691</v>
       </c>
-      <c r="C399" s="4">
+      <c r="C399" s="37">
         <v>38</v>
       </c>
-      <c r="D399" s="5"/>
-    </row>
-    <row r="400" spans="1:4">
-      <c r="A400" s="5" t="s">
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="34" t="s">
         <v>611</v>
       </c>
-      <c r="B400" s="17">
+      <c r="B400" s="36">
         <v>36907661</v>
       </c>
-      <c r="C400" s="4">
+      <c r="C400" s="37">
         <v>38</v>
       </c>
-      <c r="D400" s="5"/>
-    </row>
-    <row r="401" spans="1:4">
-      <c r="A401" s="5" t="s">
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="34" t="s">
         <v>612</v>
       </c>
-      <c r="B401" s="17">
+      <c r="B401" s="36">
         <v>36332159</v>
       </c>
-      <c r="C401" s="4">
+      <c r="C401" s="37">
         <v>38</v>
       </c>
-      <c r="D401" s="5"/>
-    </row>
-    <row r="402" spans="1:4">
-      <c r="A402" s="5" t="s">
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="34" t="s">
         <v>613</v>
       </c>
-      <c r="B402" s="17">
+      <c r="B402" s="36">
         <v>39151087</v>
       </c>
-      <c r="C402" s="4">
+      <c r="C402" s="37">
         <v>38</v>
       </c>
-      <c r="D402" s="5"/>
-    </row>
-    <row r="403" spans="1:4">
-      <c r="A403" s="5" t="s">
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="34" t="s">
         <v>614</v>
       </c>
-      <c r="B403" s="17">
+      <c r="B403" s="36">
         <v>31795363</v>
       </c>
-      <c r="C403" s="4">
+      <c r="C403" s="37">
         <v>38</v>
       </c>
-      <c r="D403" s="5"/>
-    </row>
-    <row r="404" spans="1:4">
-      <c r="A404" s="5" t="s">
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="34" t="s">
         <v>615</v>
       </c>
-      <c r="B404" s="17">
+      <c r="B404" s="36">
         <v>22166823</v>
       </c>
-      <c r="C404" s="4">
+      <c r="C404" s="37">
         <v>38</v>
       </c>
-      <c r="D404" s="5"/>
-    </row>
-    <row r="405" spans="1:4">
-      <c r="A405" s="12" t="s">
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="38" t="s">
         <v>621</v>
       </c>
-      <c r="B405" s="48">
+      <c r="B405" s="39">
         <v>32999574</v>
       </c>
-      <c r="C405" s="4">
+      <c r="C405" s="37">
         <v>39</v>
       </c>
-      <c r="D405" s="12"/>
-    </row>
-    <row r="406" spans="1:4">
-      <c r="A406" s="12" t="s">
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="38" t="s">
         <v>622</v>
       </c>
-      <c r="B406" s="48">
+      <c r="B406" s="39">
         <v>36936058</v>
       </c>
-      <c r="C406" s="4">
+      <c r="C406" s="37">
         <v>39</v>
       </c>
-      <c r="D406" s="12"/>
-    </row>
-    <row r="407" spans="1:4">
-      <c r="A407" s="12" t="s">
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="38" t="s">
         <v>623</v>
       </c>
-      <c r="B407" s="48">
+      <c r="B407" s="39">
         <v>35610298</v>
       </c>
-      <c r="C407" s="4">
+      <c r="C407" s="37">
         <v>39</v>
       </c>
-      <c r="D407" s="12"/>
-    </row>
-    <row r="408" spans="1:4">
-      <c r="A408" s="12" t="s">
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="38" t="s">
         <v>624</v>
       </c>
-      <c r="B408" s="48">
+      <c r="B408" s="39">
         <v>35609104</v>
       </c>
-      <c r="C408" s="4">
+      <c r="C408" s="37">
         <v>39</v>
       </c>
-      <c r="D408" s="12"/>
-    </row>
-    <row r="409" spans="1:4">
-      <c r="A409" s="12" t="s">
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="38" t="s">
         <v>625</v>
       </c>
-      <c r="B409" s="48">
+      <c r="B409" s="39">
         <v>0</v>
       </c>
-      <c r="C409" s="4">
+      <c r="C409" s="37">
         <v>39</v>
       </c>
-      <c r="D409" s="12"/>
-    </row>
-    <row r="410" spans="1:4">
-      <c r="A410" s="12" t="s">
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="38" t="s">
         <v>626</v>
       </c>
-      <c r="B410" s="48">
+      <c r="B410" s="39">
         <v>0</v>
       </c>
-      <c r="C410" s="4">
+      <c r="C410" s="37">
         <v>39</v>
       </c>
-      <c r="D410" s="12"/>
-    </row>
-    <row r="411" spans="1:4">
-      <c r="A411" s="12" t="s">
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="38" t="s">
         <v>627</v>
       </c>
-      <c r="B411" s="48">
+      <c r="B411" s="39">
         <v>94800577</v>
       </c>
-      <c r="C411" s="4">
+      <c r="C411" s="37">
         <v>39</v>
       </c>
-      <c r="D411" s="12"/>
-    </row>
-    <row r="412" spans="1:4">
-      <c r="A412" s="12" t="s">
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="38" t="s">
         <v>628</v>
       </c>
-      <c r="B412" s="48">
+      <c r="B412" s="39">
         <v>13486136</v>
       </c>
-      <c r="C412" s="4">
+      <c r="C412" s="37">
         <v>39</v>
       </c>
-      <c r="D412" s="12"/>
-    </row>
-    <row r="413" spans="1:4">
-      <c r="A413" s="5" t="s">
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="34" t="s">
         <v>630</v>
       </c>
-      <c r="B413" s="17">
+      <c r="B413" s="36">
         <v>31616324</v>
       </c>
-      <c r="C413" s="4">
+      <c r="C413" s="37">
         <v>40</v>
       </c>
-      <c r="D413" s="5"/>
-    </row>
-    <row r="414" spans="1:4">
-      <c r="A414" s="5" t="s">
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="34" t="s">
         <v>633</v>
       </c>
-      <c r="B414" s="17">
+      <c r="B414" s="36">
         <v>31301954</v>
       </c>
-      <c r="C414" s="4">
+      <c r="C414" s="37">
         <v>40</v>
       </c>
-      <c r="D414" s="5"/>
-    </row>
-    <row r="415" spans="1:4">
-      <c r="A415" s="5" t="s">
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="34" t="s">
         <v>632</v>
       </c>
-      <c r="B415" s="17">
+      <c r="B415" s="36">
         <v>31491560</v>
       </c>
-      <c r="C415" s="4">
+      <c r="C415" s="37">
         <v>40</v>
       </c>
-      <c r="D415" s="5"/>
-    </row>
-    <row r="416" spans="1:4">
-      <c r="A416" s="5" t="s">
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="34" t="s">
         <v>634</v>
       </c>
-      <c r="B416" s="17">
+      <c r="B416" s="36">
         <v>26946506</v>
       </c>
-      <c r="C416" s="4">
+      <c r="C416" s="37">
         <v>40</v>
       </c>
-      <c r="D416" s="5"/>
-    </row>
-    <row r="417" spans="1:4">
-      <c r="A417" s="5" t="s">
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="34" t="s">
         <v>635</v>
       </c>
-      <c r="B417" s="17">
+      <c r="B417" s="36">
         <v>28992058</v>
       </c>
-      <c r="C417" s="4">
+      <c r="C417" s="37">
         <v>40</v>
       </c>
-      <c r="D417" s="5"/>
-    </row>
-    <row r="418" spans="1:4">
-      <c r="A418" s="5" t="s">
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="34" t="s">
         <v>636</v>
       </c>
-      <c r="B418" s="17">
+      <c r="B418" s="36">
         <v>34295807</v>
       </c>
-      <c r="C418" s="4">
+      <c r="C418" s="37">
         <v>40</v>
       </c>
-      <c r="D418" s="5"/>
-    </row>
-    <row r="419" spans="1:4">
-      <c r="A419" s="5" t="s">
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="34" t="s">
         <v>637</v>
       </c>
-      <c r="B419" s="17">
+      <c r="B419" s="36">
         <v>27848460</v>
       </c>
-      <c r="C419" s="4">
+      <c r="C419" s="37">
         <v>40</v>
       </c>
-      <c r="D419" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
